--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\pipeline\auto_mail\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\parma121.ca.sbrf.ru\VOL2_DFA_FR\DFA-VARM\21251117_OMEGA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914D82E-621C-4CBC-8668-C6D4BB9D1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,6 +530,9 @@
     <t>Ямата</t>
   </si>
   <si>
+    <t>А101</t>
+  </si>
+  <si>
     <t>Группа компаний «А101»</t>
   </si>
   <si>
@@ -696,27 +698,15 @@
     <t>АЭМЗ Холдинг</t>
   </si>
   <si>
-    <t>Аэропорт Внуково</t>
-  </si>
-  <si>
     <t>АО «Международный аэропорт Внуково»</t>
   </si>
   <si>
-    <t>Аэропорт Домодедово</t>
-  </si>
-  <si>
     <t>ЗАО «Международный аэропорт Домодедово»</t>
   </si>
   <si>
-    <t>Аэропорт Пулково</t>
-  </si>
-  <si>
     <t>ОАО «Международный аэропорт Пулково»</t>
   </si>
   <si>
-    <t>Аэропорт Шереметьево</t>
-  </si>
-  <si>
     <t>ОАО «Международный аэропорт Шереметьево»</t>
   </si>
   <si>
@@ -1122,6 +1112,9 @@
     <t>АО «Минерально-химическая компания ЕвроХим»</t>
   </si>
   <si>
+    <t>ЕХСЗ-2</t>
+  </si>
+  <si>
     <t>ЕвроХим Северо-Запад</t>
   </si>
   <si>
@@ -2535,19 +2528,25 @@
     <t>Яндекс</t>
   </si>
   <si>
+    <t>Внуково</t>
+  </si>
+  <si>
+    <t>Домодедово</t>
+  </si>
+  <si>
+    <t>Пулково</t>
+  </si>
+  <si>
+    <t>Шереметьево</t>
+  </si>
+  <si>
     <t xml:space="preserve">En+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">А101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕХСЗ-2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2598,8 +2597,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2876,16 +2875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2916,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +2930,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2943,7 +2942,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2953,7 +2952,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2965,7 +2964,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2977,7 +2976,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2987,7 +2986,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2999,7 +2998,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3023,7 +3022,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3036,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -3047,7 +3046,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3061,7 +3060,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3073,9 +3072,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -3085,7 +3084,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3096,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3107,7 +3106,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3121,7 +3120,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -3131,7 +3130,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -3143,7 +3142,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3155,7 +3154,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3179,7 +3178,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -3225,7 +3224,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -3237,7 +3236,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -3263,7 +3262,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -3303,7 +3302,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -3327,7 +3326,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -3341,7 +3340,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -3355,7 +3354,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -3367,7 +3366,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -3411,7 +3410,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -3437,7 +3436,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -3453,7 +3452,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
@@ -3475,7 +3474,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>110</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>113</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>114</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>117</v>
       </c>
@@ -3529,7 +3528,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -3541,7 +3540,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>123</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -3559,7 +3558,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
@@ -3585,7 +3584,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>133</v>
       </c>
@@ -3597,7 +3596,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>136</v>
       </c>
@@ -3605,7 +3604,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>137</v>
       </c>
@@ -3617,7 +3616,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>140</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>146</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>147</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>155</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>157</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>159</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>161</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>163</v>
       </c>
@@ -3741,7 +3740,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>166</v>
       </c>
@@ -3751,289 +3750,289 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>837</v>
+        <v>168</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>223</v>
+        <v>834</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>224</v>
@@ -4041,323 +4040,323 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>227</v>
+        <v>836</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>229</v>
+        <v>837</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4365,75 +4364,75 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4441,67 +4440,67 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="E141" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D141" s="2" t="s">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
@@ -4509,399 +4508,399 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>838</v>
+        <v>362</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C166" s="2" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4909,9 +4908,9 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4919,9 +4918,9 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4929,23 +4928,23 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4953,53 +4952,53 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E185" s="2" t="s">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5007,1886 +5006,1886 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B221" s="1" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B223" s="1" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B235" s="1" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D244" s="1"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D245" s="1"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="D249" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C249" s="2" t="s">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D251" s="1"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="D252" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C252" s="2" t="s">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="D255" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C255" s="2" t="s">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D268" s="1"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B273" s="1" t="s">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+      <c r="C276" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B280" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C279" s="1"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
+      <c r="C280" s="2"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C280" s="2"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C286" s="1"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C287" s="1"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D290" s="1"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="B295" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D294" s="1"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="D296" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C296" s="2" t="s">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="B300" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
+      <c r="C300" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="D300" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C300" s="2" t="s">
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="B301" s="1" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="D308" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="B309" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="D311" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E311" s="1"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B321" s="1" t="s">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C323" s="1"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B324" s="1" t="s">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B325" s="1" t="s">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="B326" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C327" s="1"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B329" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C328" s="1"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C329" s="1"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
+      <c r="C330" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B330" s="1" t="s">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C331" s="1"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C332" s="1"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C333" s="1"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B335" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C334" s="1"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+      <c r="C335" s="2"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C335" s="2"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B337" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C336" s="1"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D342" s="1"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="D343" s="1"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="D346" s="1"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="B349" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D348" s="1"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
+      <c r="C349" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="D349" s="1"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="D351" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C351" s="2" t="s">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="2" t="s">
+      <c r="C354" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="B355" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D354" s="1"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
+      <c r="C355" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="D355" s="1"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="B360" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D359" s="1"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="2" t="s">
+      <c r="C360" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
+      <c r="C361" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="D361" s="1"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="D363" s="1"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="D368" s="1"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="2" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="B371" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C251" r:id="rId1" display="https://www.polymetalinternational.com/ru/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C296" r:id="rId2" display="https://sevtelecom.ru/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C342" r:id="rId3" display="https://company.rzd.ru/ru/9349/page/105554?id=2340" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B41" r:id="rId4" display="https://www.tadviser.ru/index.php/%D0%9A%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D1%8F:%D0%9C%D0%BE%D0%BB%D0%BB%D1%82%D0%B5%D0%BA_(Malltech)_-_%D0%A0%D0%BE%D1%81%D0%95%D0%B2%D1%80%D0%BE%D0%94%D0%B5%D0%B2%D0%B5%D0%BB%D0%BE%D0%BF%D0%BC%D0%B5%D0%BD%D1%82" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C167" r:id="rId5" display="https://zavidovo.ru/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B153" r:id="rId6" display="https://www.psngroup.ru/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C251" r:id="rId1" display="https://www.polymetalinternational.com/ru/"/>
+    <hyperlink ref="C296" r:id="rId2" display="https://sevtelecom.ru/"/>
+    <hyperlink ref="C342" r:id="rId3" display="https://company.rzd.ru/ru/9349/page/105554?id=2340"/>
+    <hyperlink ref="B41" r:id="rId4" display="https://www.tadviser.ru/index.php/%D0%9A%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D1%8F:%D0%9C%D0%BE%D0%BB%D0%BB%D1%82%D0%B5%D0%BA_(Malltech)_-_%D0%A0%D0%BE%D1%81%D0%95%D0%B2%D1%80%D0%BE%D0%94%D0%B5%D0%B2%D0%B5%D0%BB%D0%BE%D0%BF%D0%BC%D0%B5%D0%BD%D1%82"/>
+    <hyperlink ref="C167" r:id="rId5" display="https://zavidovo.ru/"/>
+    <hyperlink ref="B153" r:id="rId6" display="https://www.psngroup.ru/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E323F7D-47FB-48E3-9C08-795D0C9DF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D4964-20CD-49D4-AD8C-D6A09F79D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="946">
   <si>
     <t>Клиент</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve"> БВР </t>
   </si>
   <si>
-    <t xml:space="preserve"> Компания БВР </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Capital Partners </t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t xml:space="preserve"> Limak </t>
   </si>
   <si>
-    <t xml:space="preserve"> Limak Holding </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Luxoft Company </t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t xml:space="preserve"> Multinational logistics partnership </t>
   </si>
   <si>
-    <t xml:space="preserve"> УК MLP </t>
-  </si>
-  <si>
     <t xml:space="preserve"> MR Group </t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t xml:space="preserve"> OCS </t>
   </si>
   <si>
-    <t xml:space="preserve"> OCS Distribution </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OZON </t>
   </si>
   <si>
@@ -478,12 +466,6 @@
     <t xml:space="preserve"> Raven Property Group </t>
   </si>
   <si>
-    <t xml:space="preserve"> Raven Russia </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Raven Property </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RD Group </t>
   </si>
   <si>
@@ -589,9 +571,6 @@
     <t xml:space="preserve"> АО "ТОРГОВЫЙ ДОМ "ПЕРЕКРЕСТОК" </t>
   </si>
   <si>
-    <t xml:space="preserve"> X5 Group </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Перекресток </t>
   </si>
   <si>
@@ -721,9 +700,6 @@
     <t xml:space="preserve"> КОМКОР </t>
   </si>
   <si>
-    <t xml:space="preserve"> АКАДО Телеком </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Акрон </t>
   </si>
   <si>
@@ -964,9 +940,6 @@
     <t xml:space="preserve"> Сеть магазинов "Верный" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Компания "Верный" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Верхнебаканский цементный завод </t>
   </si>
   <si>
@@ -1075,15 +1048,9 @@
     <t xml:space="preserve"> АО фирма "Агрокомплекс" имени Н. И. Ткачёв </t>
   </si>
   <si>
-    <t xml:space="preserve"> "Агрокомплекс Выселковский" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Агрокомплекс" им. Н.И. Ткачева </t>
   </si>
   <si>
-    <t xml:space="preserve"> АО фирма АГРОКОМПЛЕКС </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ГК Касперский </t>
   </si>
   <si>
@@ -1207,9 +1174,6 @@
     <t xml:space="preserve"> ГК "Доминант" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Группа компаний "Доминант" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Домус-Тевади </t>
   </si>
   <si>
@@ -1255,9 +1219,6 @@
     <t xml:space="preserve"> ООО "ЗАБАЙКАЛЬСКИЙ ТЕРМИНАЛ" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Забайкальский Зерновой Терминал </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ЗЗТ </t>
   </si>
   <si>
@@ -1636,9 +1597,6 @@
     <t xml:space="preserve"> ПАО "Метафракс" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Биннофарм групп </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Мечел </t>
   </si>
   <si>
@@ -1987,12 +1945,6 @@
     <t xml:space="preserve"> АО "ПРОГРЕСС" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Производственно-торговая компания "Прогресс" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> торговая компания "Прогресс" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Продимекс </t>
   </si>
   <si>
@@ -2302,9 +2254,6 @@
     <t xml:space="preserve"> СЕТЬ ТЕЛЕВИЗИОННЫХ СТАНЦИЙ </t>
   </si>
   <si>
-    <t xml:space="preserve"> Корпорация СТС </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Сибирский Антрацит </t>
   </si>
   <si>
@@ -2392,9 +2341,6 @@
     <t xml:space="preserve"> ГК "Содружество" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Группа компаний "Содружество" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ГК Содружество </t>
   </si>
   <si>
@@ -2584,9 +2530,6 @@
     <t xml:space="preserve"> Турухан </t>
   </si>
   <si>
-    <t xml:space="preserve"> Авиакомпания Турухан </t>
-  </si>
-  <si>
     <t xml:space="preserve"> УАЗ </t>
   </si>
   <si>
@@ -2861,6 +2804,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Пятёрочка </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Компания БВР </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Limak Holding </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> УК MLP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCS Distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raven Russia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raven Property </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X5 Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Компания "Верный" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Агрокомплекс Выселковский" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АО фирма АГРОКОМПЛЕКС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Группа компаний "Доминант" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Забайкальский Зерновой Терминал </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Биннофарм групп </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Производственно-торговая компания "Прогресс" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> торговая компания "Прогресс" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Корпорация СТС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Группа компаний "Содружество" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Авиакомпания Турухан </t>
   </si>
 </sst>
 </file>
@@ -2916,12 +2913,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3228,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3268,8 +3262,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>945</v>
+      <c r="K1" s="1" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3356,3441 +3350,3441 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>87</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>103</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>112</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>931</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>932</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>934</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" t="s">
         <v>187</v>
       </c>
-      <c r="B69" t="s">
+      <c r="I69" t="s">
         <v>188</v>
       </c>
-      <c r="C69" t="s">
+      <c r="J69" t="s">
         <v>189</v>
       </c>
-      <c r="D69" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" t="s">
-        <v>194</v>
-      </c>
-      <c r="I69" t="s">
-        <v>195</v>
-      </c>
-      <c r="J69" t="s">
-        <v>196</v>
-      </c>
       <c r="K69" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D109" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B116" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B117" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>935</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B124" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D125" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B132" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C132" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E132" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F132" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B133" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B134" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D135" t="s">
-        <v>351</v>
+        <v>936</v>
       </c>
       <c r="E135" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F135" t="s">
-        <v>353</v>
+        <v>937</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B141" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C142" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B143" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B144" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B146" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B147" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B148" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C148" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B149" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B150" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D150" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B151" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C151" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B152" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B153" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C153" t="s">
-        <v>395</v>
+        <v>938</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B154" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B155" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C155" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D155" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E155" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B156" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B157" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C159" t="s">
-        <v>411</v>
+        <v>939</v>
       </c>
       <c r="D159" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B160" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C160" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B161" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B162" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C162" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B164" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B165" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B166" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C166" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B167" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B168" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B169" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B171" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B172" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C172" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C176" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C178" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="E178" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F178" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C179" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D179" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E179" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B180" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B183" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B184" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B185" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C185" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D185" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E185" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F185" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B186" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B187" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B188" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B189" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C189" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C190" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B191" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C191" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C192" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B193" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C193" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B194" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B195" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C195" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D195" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E195" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B196" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C196" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D196" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E196" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F196" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G196" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B198" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B199" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B200" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B201" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B202" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B203" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C203" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B204" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B205" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C205" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D205" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E205" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F205" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G205" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B206" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C206" t="s">
-        <v>538</v>
+        <v>940</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B207" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C207" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D207" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B208" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B209" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C209" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D209" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E209" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F209" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B211" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C211" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B212" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C213" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B214" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C214" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D214" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B215" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B217" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B218" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B219" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="C219" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B220" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C220" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D220" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B221" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C221" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B222" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="C222" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D222" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E222" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F222" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G222" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H222" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B223" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B224" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B225" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C225" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D225" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E225" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F225" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B226" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C226" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B227" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C227" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B228" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B229" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C229" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B231" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C231" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D231" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E231" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F231" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G231" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B232" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B234" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C234" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B235" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C235" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B236" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C236" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B237" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B238" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C238" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D238" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C239" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="D239" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B240" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C240" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D240" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="B241" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="C241" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D241" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="B242" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B243" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="C243" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B244" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>655</v>
+        <v>941</v>
       </c>
       <c r="D244" t="s">
-        <v>656</v>
+        <v>942</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B245" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B246" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B247" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C247" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B248" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B249" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B250" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="C250" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B252" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B253" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B254" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C254" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="B255" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C255" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D255" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B257" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="C257" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B258" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B259" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B260" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C260" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B261" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B262" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C262" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B263" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="C263" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B264" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="C264" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B265" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="C265" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="D265" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="E265" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B266" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B267" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B268" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B269" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B270" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="C270" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="B271" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="B273" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B274" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B275" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="B276" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B277" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="C277" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="B279" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B280" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B281" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C281" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B282" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B283" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C283" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="D283" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B284" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C284" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="D284" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B285" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C285" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D285" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E285" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B286" t="s">
-        <v>760</v>
+        <v>943</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B287" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C287" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="D287" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B288" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C288" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D288" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="B289" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="C289" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="B291" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="B293" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="B294" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="B295" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="C295" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="D295" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="B296" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="B297" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="B298" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="C298" t="s">
-        <v>790</v>
+        <v>944</v>
       </c>
       <c r="D298" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="B299" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="C299" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="B300" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="C300" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="B301" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="B302" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="B303" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="C303" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="D303" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="E303" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="B304" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="B305" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="C305" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="B306" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="B307" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="B308" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="C308" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="B309" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="C309" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B310" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="B311" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="C311" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B312" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="C312" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="D312" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E312" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="F312" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="G312" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="B313" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="B314" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="B315" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="B316" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="B317" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="C317" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="B318" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="B319" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="B320" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="B321" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="B322" t="s">
-        <v>854</v>
+        <v>945</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="B323" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B324" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="C324" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="D324" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="E324" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="F324" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="G324" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="H324" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="I324" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B325" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="C325" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="B326" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="B327" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="B328" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="B329" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="C329" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="B330" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="C330" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B331" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="B333" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="C333" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="B334" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="C334" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B335" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="C335" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B336" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="C336" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="B337" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="B338" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="C338" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="D338" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="B339" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="B340" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="C340" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="B341" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="C341" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="B342" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="C342" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="B343" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="B345" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="B346" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="C346" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="B347" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="C347" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="B348" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="C348" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="B349" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="B350" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="C350" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="D350" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="B351" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="B352" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="B353" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="B354" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="C354" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D4964-20CD-49D4-AD8C-D6A09F79D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF08E40-AF36-4FB7-ADE8-715CF6383943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="948">
   <si>
     <t>Клиент</t>
   </si>
@@ -2858,6 +2858,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Авиакомпания Турухан </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Газпрома </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Газпром нефти </t>
   </si>
 </sst>
 </file>
@@ -3222,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="G318" sqref="G318"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4504,6 +4510,9 @@
       <c r="B130" t="s">
         <v>324</v>
       </c>
+      <c r="C130" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -4514,6 +4523,9 @@
       </c>
       <c r="C131" t="s">
         <v>327</v>
+      </c>
+      <c r="D131" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF08E40-AF36-4FB7-ADE8-715CF6383943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D504CCF-AA07-4FCF-B02A-2D3A0D5045A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="977">
   <si>
     <t>Клиент</t>
   </si>
@@ -2864,6 +2864,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Газпром нефти </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дихаус </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хейнекен </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Панклуб </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зельгрос </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Винлаб </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БАТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Союз Св. Иоанна Воина </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H&amp;N </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Health &amp; Nutrition </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зоозавр </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Монетка </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алькор </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алькор и ко </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подружка </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РотФронт </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бабаевский </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дискаунтер "Да!" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шишеджам </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Şişecam </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МегаМаркет </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Systeme Electric </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Остин </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ostin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAB Industries </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЛАБ Индастриз </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сьесс </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сьёсс </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шаума </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> McKinsey </t>
   </si>
 </sst>
 </file>
@@ -3226,15 +3313,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K356"/>
+  <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3404,6 +3501,9 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
+      <c r="C15" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3419,7 +3519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3427,12 +3527,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3446,12 +3546,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3459,7 +3559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3467,7 +3567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3478,7 +3578,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -3497,8 +3597,11 @@
       <c r="F24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3509,7 +3612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3523,7 +3626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3531,7 +3634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -3542,7 +3645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3550,7 +3653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3567,7 +3670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -3575,7 +3678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -3782,6 +3885,9 @@
       <c r="C51" t="s">
         <v>142</v>
       </c>
+      <c r="D51" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -3882,6 +3988,9 @@
       <c r="B62" t="s">
         <v>166</v>
       </c>
+      <c r="C62" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -4200,7 +4309,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -4211,7 +4320,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -4222,7 +4331,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -4233,7 +4342,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -4244,7 +4353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>259</v>
       </c>
@@ -4252,7 +4361,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -4260,7 +4369,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -4271,7 +4380,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>266</v>
       </c>
@@ -4279,7 +4388,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>268</v>
       </c>
@@ -4287,12 +4396,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>271</v>
       </c>
@@ -4300,7 +4409,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>273</v>
       </c>
@@ -4308,7 +4417,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>275</v>
       </c>
@@ -4321,8 +4430,11 @@
       <c r="D109" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>279</v>
       </c>
@@ -4330,7 +4442,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>281</v>
       </c>
@@ -4341,7 +4453,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -4352,15 +4464,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>287</v>
       </c>
       <c r="B113" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>289</v>
       </c>
@@ -4368,7 +4483,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>291</v>
       </c>
@@ -4376,7 +4491,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>293</v>
       </c>
@@ -4387,15 +4502,24 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>296</v>
       </c>
       <c r="B117" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>859</v>
+      </c>
+      <c r="D117" t="s">
+        <v>860</v>
+      </c>
+      <c r="E117" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>298</v>
       </c>
@@ -4403,7 +4527,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>300</v>
       </c>
@@ -4411,7 +4535,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>302</v>
       </c>
@@ -4419,7 +4543,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>304</v>
       </c>
@@ -4429,13 +4553,16 @@
       <c r="C121" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>307</v>
       </c>
@@ -4443,7 +4570,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>309</v>
       </c>
@@ -4451,7 +4578,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>311</v>
       </c>
@@ -4465,7 +4592,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>315</v>
       </c>
@@ -4473,7 +4600,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>925</v>
       </c>
@@ -4484,7 +4611,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>318</v>
       </c>
@@ -4729,6 +4856,12 @@
       <c r="C151" t="s">
         <v>379</v>
       </c>
+      <c r="D151" t="s">
+        <v>955</v>
+      </c>
+      <c r="E151" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -4737,6 +4870,9 @@
       <c r="B152" t="s">
         <v>381</v>
       </c>
+      <c r="C152" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
@@ -5079,6 +5215,9 @@
       <c r="B188" t="s">
         <v>469</v>
       </c>
+      <c r="C188" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
@@ -5142,6 +5281,15 @@
       <c r="B194" t="s">
         <v>486</v>
       </c>
+      <c r="C194" t="s">
+        <v>959</v>
+      </c>
+      <c r="D194" t="s">
+        <v>960</v>
+      </c>
+      <c r="E194" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
@@ -5542,11 +5690,20 @@
       <c r="C229" t="s">
         <v>595</v>
       </c>
+      <c r="D229" t="s">
+        <v>962</v>
+      </c>
+      <c r="E229" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>596</v>
       </c>
+      <c r="B230" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
@@ -5933,6 +6090,12 @@
       <c r="B267" t="s">
         <v>698</v>
       </c>
+      <c r="C267" t="s">
+        <v>965</v>
+      </c>
+      <c r="D267" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
@@ -6021,6 +6184,9 @@
       <c r="A278" t="s">
         <v>720</v>
       </c>
+      <c r="B278" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
@@ -6166,6 +6332,9 @@
       <c r="A292" t="s">
         <v>758</v>
       </c>
+      <c r="B292" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
@@ -6256,6 +6425,12 @@
       <c r="B301" t="s">
         <v>781</v>
       </c>
+      <c r="C301" t="s">
+        <v>969</v>
+      </c>
+      <c r="D301" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -6549,253 +6724,255 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B330" t="s">
-        <v>860</v>
-      </c>
-      <c r="C330" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>862</v>
-      </c>
-      <c r="B331" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>864</v>
+        <v>865</v>
+      </c>
+      <c r="B332" t="s">
+        <v>866</v>
+      </c>
+      <c r="C332" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B333" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C333" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B334" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C334" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B335" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C335" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B336" t="s">
-        <v>875</v>
-      </c>
-      <c r="C336" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B337" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+      <c r="C337" t="s">
+        <v>881</v>
+      </c>
+      <c r="D337" t="s">
+        <v>882</v>
+      </c>
+      <c r="E337" t="s">
+        <v>971</v>
+      </c>
+      <c r="F337" t="s">
+        <v>972</v>
+      </c>
+      <c r="G337" t="s">
+        <v>973</v>
+      </c>
+      <c r="H337" t="s">
+        <v>974</v>
+      </c>
+      <c r="I337" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B338" t="s">
-        <v>880</v>
-      </c>
-      <c r="C338" t="s">
-        <v>881</v>
-      </c>
-      <c r="D338" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B339" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+      <c r="C339" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B340" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C340" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B341" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C341" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B342" t="s">
-        <v>892</v>
-      </c>
-      <c r="C342" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B343" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+      <c r="B344" t="s">
+        <v>899</v>
+      </c>
+      <c r="C344" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="B345" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+      <c r="C345" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="B346" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C346" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="B347" t="s">
-        <v>902</v>
-      </c>
-      <c r="C347" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B348" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C348" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+      <c r="D348" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="B349" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="B350" t="s">
-        <v>910</v>
-      </c>
-      <c r="C350" t="s">
-        <v>911</v>
-      </c>
-      <c r="D350" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B351" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B352" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+      <c r="C352" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B353" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>919</v>
-      </c>
-      <c r="B354" t="s">
-        <v>920</v>
-      </c>
-      <c r="C354" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
         <v>923</v>
       </c>
     </row>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D504CCF-AA07-4FCF-B02A-2D3A0D5045A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF73E8B-CA53-42EC-BA0D-0890B3FBD07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1013">
   <si>
     <t>Клиент</t>
   </si>
@@ -1993,9 +2006,6 @@
     <t xml:space="preserve"> РЗ Агро </t>
   </si>
   <si>
-    <t xml:space="preserve"> РКС </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Российские коммунальные системы </t>
   </si>
   <si>
@@ -2500,9 +2510,6 @@
     <t xml:space="preserve"> ПАО "Центр по перевозке грузов в контейнерах "ТрансКонтейнер" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Группа Дело </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Транснефть </t>
   </si>
   <si>
@@ -2951,6 +2958,120 @@
   </si>
   <si>
     <t xml:space="preserve"> McKinsey </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Порт Тамань </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аммиакопровод </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОАО "Верхнебаканский цементный завод" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВБЦЗ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГАЗМЕТАЛЛПРОЕКТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cemros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СМИКОМ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МКСМ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГК ПРОТЕК </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Протек </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СОТЕКС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Центр внедрения ПРОТЕК </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РАФАРМ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АПТЕКИ РИГЛА </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХАЙДЕЛЬБЕРГ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХАЙДЕЛЬБЕРГЦЕМЕНТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heidelbergcement </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "СЛАНЦЕВСКИЙ ЦЕМЕНТНЫЙ ЗАВОД "ЦЕСЛА" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ХАЙДЕЛЬБЕРГЦЕМЕНТ РУС" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО "НОВАЯ ГРУППА" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HolcimLafarge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Независимая нефтегазовая компания </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сургутнефтегаз </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Беларуськалий </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОАО "Беларуськалий" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПАО "Сургутнефтегаз" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ЛАФАРЖ ГЕО" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АО ННК-Приморнефтепродукт </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Белорусская калийная компания </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ННК-Хабаровскнефтепродукт </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ЛАФАРЖ НЕРУДНЫЕ МАТЕРИАЛЫ И БЕТОН" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ХОЛСИМ (РУС) СТРОИТЕЛЬНЫЕ МАТЕРИАЛЫ" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ННК-Амурнефтепродукт </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ННК </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ХОЛСИМ (РУС)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЛАФАРЖ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "НОРЦЕМ КОЛА" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГУРОВО-БЕТОН </t>
   </si>
 </sst>
 </file>
@@ -3313,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K354"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3453,7 +3574,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,7 +3623,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3598,7 +3719,7 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3738,7 +3859,7 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3813,7 +3934,7 @@
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3864,7 +3985,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3886,7 +4007,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,10 +4031,10 @@
         <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D54" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3989,7 +4110,7 @@
         <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4054,7 +4175,7 @@
         <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D69" t="s">
         <v>183</v>
@@ -4078,7 +4199,7 @@
         <v>189</v>
       </c>
       <c r="K69" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4431,7 +4552,7 @@
         <v>278</v>
       </c>
       <c r="E109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4472,7 +4593,7 @@
         <v>288</v>
       </c>
       <c r="C113" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4510,13 +4631,13 @@
         <v>297</v>
       </c>
       <c r="C117" t="s">
+        <v>857</v>
+      </c>
+      <c r="D117" t="s">
+        <v>858</v>
+      </c>
+      <c r="E117" t="s">
         <v>859</v>
-      </c>
-      <c r="D117" t="s">
-        <v>860</v>
-      </c>
-      <c r="E117" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4551,10 +4672,10 @@
         <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D121" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4602,13 +4723,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B127" t="s">
         <v>317</v>
       </c>
       <c r="C127" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4638,7 +4759,7 @@
         <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4652,7 +4773,7 @@
         <v>327</v>
       </c>
       <c r="D131" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4705,13 +4826,13 @@
         <v>341</v>
       </c>
       <c r="D135" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E135" t="s">
         <v>342</v>
       </c>
       <c r="F135" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,10 +4978,10 @@
         <v>379</v>
       </c>
       <c r="D151" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E151" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4871,7 +4992,7 @@
         <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4882,7 +5003,7 @@
         <v>383</v>
       </c>
       <c r="C153" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4925,6 +5046,9 @@
       <c r="B157" t="s">
         <v>394</v>
       </c>
+      <c r="C157" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -4933,6 +5057,9 @@
       <c r="B158" t="s">
         <v>396</v>
       </c>
+      <c r="C158" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -4942,7 +5069,7 @@
         <v>398</v>
       </c>
       <c r="C159" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D159" t="s">
         <v>399</v>
@@ -5216,7 +5343,7 @@
         <v>469</v>
       </c>
       <c r="C188" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5282,13 +5409,13 @@
         <v>486</v>
       </c>
       <c r="C194" t="s">
+        <v>957</v>
+      </c>
+      <c r="D194" t="s">
+        <v>958</v>
+      </c>
+      <c r="E194" t="s">
         <v>959</v>
-      </c>
-      <c r="D194" t="s">
-        <v>960</v>
-      </c>
-      <c r="E194" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5429,7 +5556,7 @@
         <v>524</v>
       </c>
       <c r="C206" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5691,10 +5818,10 @@
         <v>595</v>
       </c>
       <c r="D229" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E229" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -5702,7 +5829,7 @@
         <v>596</v>
       </c>
       <c r="B230" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -5865,10 +5992,10 @@
         <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D244" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5937,1043 +6064,1202 @@
       <c r="A252" t="s">
         <v>657</v>
       </c>
-      <c r="B252" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>658</v>
+      </c>
+      <c r="B253" t="s">
         <v>659</v>
-      </c>
-      <c r="B253" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>660</v>
+      </c>
+      <c r="B254" t="s">
         <v>661</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>662</v>
-      </c>
-      <c r="C254" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>663</v>
+      </c>
+      <c r="B255" t="s">
         <v>664</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>665</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>666</v>
-      </c>
-      <c r="D255" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>668</v>
+      </c>
+      <c r="B257" t="s">
         <v>669</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>670</v>
-      </c>
-      <c r="C257" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>671</v>
+      </c>
+      <c r="B258" t="s">
         <v>672</v>
-      </c>
-      <c r="B258" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>673</v>
+      </c>
+      <c r="B259" t="s">
         <v>674</v>
-      </c>
-      <c r="B259" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>675</v>
+      </c>
+      <c r="B260" t="s">
         <v>676</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>677</v>
-      </c>
-      <c r="C260" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>678</v>
+      </c>
+      <c r="B261" t="s">
         <v>679</v>
-      </c>
-      <c r="B261" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>680</v>
+      </c>
+      <c r="B262" t="s">
         <v>681</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>682</v>
-      </c>
-      <c r="C262" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>683</v>
+      </c>
+      <c r="B263" t="s">
         <v>684</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>685</v>
-      </c>
-      <c r="C263" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>686</v>
+      </c>
+      <c r="B264" t="s">
         <v>687</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>688</v>
-      </c>
-      <c r="C264" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>689</v>
+      </c>
+      <c r="B265" t="s">
         <v>690</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>691</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>692</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>693</v>
-      </c>
-      <c r="E265" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>694</v>
+      </c>
+      <c r="B266" t="s">
         <v>695</v>
-      </c>
-      <c r="B266" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>696</v>
+      </c>
+      <c r="B267" t="s">
         <v>697</v>
       </c>
-      <c r="B267" t="s">
-        <v>698</v>
-      </c>
       <c r="C267" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D267" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>698</v>
+      </c>
+      <c r="B268" t="s">
         <v>699</v>
-      </c>
-      <c r="B268" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>700</v>
+      </c>
+      <c r="B269" t="s">
         <v>701</v>
-      </c>
-      <c r="B269" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>702</v>
+      </c>
+      <c r="B270" t="s">
         <v>703</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>704</v>
-      </c>
-      <c r="C270" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
+        <v>705</v>
+      </c>
+      <c r="B271" t="s">
         <v>706</v>
-      </c>
-      <c r="B271" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>708</v>
+      </c>
+      <c r="B273" t="s">
         <v>709</v>
-      </c>
-      <c r="B273" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>710</v>
+      </c>
+      <c r="B274" t="s">
         <v>711</v>
-      </c>
-      <c r="B274" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>712</v>
+      </c>
+      <c r="B275" t="s">
         <v>713</v>
-      </c>
-      <c r="B275" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>714</v>
+      </c>
+      <c r="B276" t="s">
         <v>715</v>
-      </c>
-      <c r="B276" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>716</v>
+      </c>
+      <c r="B277" t="s">
         <v>717</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>718</v>
-      </c>
-      <c r="C277" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B278" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>720</v>
+      </c>
+      <c r="B279" t="s">
         <v>721</v>
-      </c>
-      <c r="B279" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>722</v>
+      </c>
+      <c r="B280" t="s">
         <v>723</v>
-      </c>
-      <c r="B280" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
+        <v>724</v>
+      </c>
+      <c r="B281" t="s">
         <v>725</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>726</v>
-      </c>
-      <c r="C281" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>727</v>
+      </c>
+      <c r="B282" t="s">
         <v>728</v>
-      </c>
-      <c r="B282" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
+        <v>729</v>
+      </c>
+      <c r="B283" t="s">
         <v>730</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>731</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>732</v>
-      </c>
-      <c r="D283" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>733</v>
+      </c>
+      <c r="B284" t="s">
         <v>734</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>735</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>736</v>
-      </c>
-      <c r="D284" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>737</v>
+      </c>
+      <c r="B285" t="s">
         <v>738</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>739</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>740</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>741</v>
-      </c>
-      <c r="E285" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B286" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>743</v>
+      </c>
+      <c r="B287" t="s">
         <v>744</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>745</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>746</v>
-      </c>
-      <c r="D287" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>747</v>
+      </c>
+      <c r="B288" t="s">
         <v>748</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>749</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>750</v>
-      </c>
-      <c r="D288" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>751</v>
+      </c>
+      <c r="B289" t="s">
         <v>752</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>753</v>
-      </c>
-      <c r="C289" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>755</v>
+      </c>
+      <c r="B291" t="s">
         <v>756</v>
-      </c>
-      <c r="B291" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B292" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>758</v>
+      </c>
+      <c r="B293" t="s">
         <v>759</v>
-      </c>
-      <c r="B293" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>760</v>
+      </c>
+      <c r="B294" t="s">
         <v>761</v>
-      </c>
-      <c r="B294" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>762</v>
+      </c>
+      <c r="B295" t="s">
         <v>763</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>764</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>765</v>
-      </c>
-      <c r="D295" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>766</v>
+      </c>
+      <c r="B296" t="s">
         <v>767</v>
-      </c>
-      <c r="B296" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>768</v>
+      </c>
+      <c r="B297" t="s">
         <v>769</v>
-      </c>
-      <c r="B297" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>770</v>
+      </c>
+      <c r="B298" t="s">
         <v>771</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
+        <v>942</v>
+      </c>
+      <c r="D298" t="s">
         <v>772</v>
-      </c>
-      <c r="C298" t="s">
-        <v>944</v>
-      </c>
-      <c r="D298" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>773</v>
+      </c>
+      <c r="B299" t="s">
         <v>774</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>775</v>
-      </c>
-      <c r="C299" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>776</v>
+      </c>
+      <c r="B300" t="s">
         <v>777</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>778</v>
-      </c>
-      <c r="C300" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>779</v>
+      </c>
+      <c r="B301" t="s">
         <v>780</v>
       </c>
-      <c r="B301" t="s">
-        <v>781</v>
-      </c>
       <c r="C301" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D301" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
+        <v>781</v>
+      </c>
+      <c r="B302" t="s">
         <v>782</v>
-      </c>
-      <c r="B302" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
+        <v>783</v>
+      </c>
+      <c r="B303" t="s">
         <v>784</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>785</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>786</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303" t="s">
         <v>787</v>
-      </c>
-      <c r="E303" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
+        <v>788</v>
+      </c>
+      <c r="B304" t="s">
         <v>789</v>
-      </c>
-      <c r="B304" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>790</v>
+      </c>
+      <c r="B305" t="s">
         <v>791</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>792</v>
-      </c>
-      <c r="C305" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>793</v>
+      </c>
+      <c r="B306" t="s">
         <v>794</v>
-      </c>
-      <c r="B306" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
+        <v>795</v>
+      </c>
+      <c r="B307" t="s">
         <v>796</v>
-      </c>
-      <c r="B307" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>797</v>
+      </c>
+      <c r="B308" t="s">
         <v>798</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>799</v>
-      </c>
-      <c r="C308" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>800</v>
+      </c>
+      <c r="B309" t="s">
         <v>801</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>802</v>
-      </c>
-      <c r="C309" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
+        <v>803</v>
+      </c>
+      <c r="B310" t="s">
         <v>804</v>
-      </c>
-      <c r="B310" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>805</v>
+      </c>
+      <c r="B311" t="s">
         <v>806</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>807</v>
-      </c>
-      <c r="C311" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
+        <v>808</v>
+      </c>
+      <c r="B312" t="s">
         <v>809</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>810</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>811</v>
       </c>
-      <c r="D312" t="s">
+      <c r="E312" t="s">
         <v>812</v>
       </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>813</v>
       </c>
-      <c r="F312" t="s">
+      <c r="G312" t="s">
         <v>814</v>
-      </c>
-      <c r="G312" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>815</v>
+      </c>
+      <c r="B313" t="s">
         <v>816</v>
-      </c>
-      <c r="B313" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
+        <v>817</v>
+      </c>
+      <c r="B314" t="s">
         <v>818</v>
-      </c>
-      <c r="B314" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
+        <v>819</v>
+      </c>
+      <c r="B315" t="s">
         <v>820</v>
       </c>
-      <c r="B315" t="s">
-        <v>821</v>
+      <c r="C315" t="s">
+        <v>847</v>
+      </c>
+      <c r="D315" t="s">
+        <v>975</v>
+      </c>
+      <c r="E315" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>821</v>
+      </c>
+      <c r="B316" t="s">
         <v>822</v>
       </c>
-      <c r="B316" t="s">
-        <v>823</v>
+      <c r="C316" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>823</v>
+      </c>
+      <c r="B317" t="s">
         <v>824</v>
       </c>
-      <c r="B317" t="s">
-        <v>825</v>
-      </c>
       <c r="C317" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B318" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B319" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B320" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B321" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B322" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B323" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>836</v>
+      </c>
+      <c r="B324" t="s">
+        <v>837</v>
+      </c>
+      <c r="C324" t="s">
         <v>838</v>
       </c>
-      <c r="B324" t="s">
+      <c r="D324" t="s">
         <v>839</v>
       </c>
-      <c r="C324" t="s">
+      <c r="E324" t="s">
         <v>840</v>
       </c>
-      <c r="D324" t="s">
+      <c r="F324" t="s">
         <v>841</v>
       </c>
-      <c r="E324" t="s">
+      <c r="G324" t="s">
         <v>842</v>
       </c>
-      <c r="F324" t="s">
+      <c r="H324" t="s">
         <v>843</v>
       </c>
-      <c r="G324" t="s">
+      <c r="I324" t="s">
         <v>844</v>
-      </c>
-      <c r="H324" t="s">
-        <v>845</v>
-      </c>
-      <c r="I324" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>845</v>
+      </c>
+      <c r="B325" t="s">
+        <v>846</v>
+      </c>
+      <c r="C325" t="s">
         <v>847</v>
-      </c>
-      <c r="B325" t="s">
-        <v>848</v>
-      </c>
-      <c r="C325" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B326" t="s">
-        <v>851</v>
+        <v>849</v>
+      </c>
+      <c r="C326" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B327" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B328" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>854</v>
+      </c>
+      <c r="B329" t="s">
+        <v>855</v>
+      </c>
+      <c r="C329" t="s">
         <v>856</v>
-      </c>
-      <c r="B329" t="s">
-        <v>857</v>
-      </c>
-      <c r="C329" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B330" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>863</v>
+      </c>
+      <c r="B332" t="s">
+        <v>864</v>
+      </c>
+      <c r="C332" t="s">
         <v>865</v>
-      </c>
-      <c r="B332" t="s">
-        <v>866</v>
-      </c>
-      <c r="C332" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>866</v>
+      </c>
+      <c r="B333" t="s">
+        <v>867</v>
+      </c>
+      <c r="C333" t="s">
         <v>868</v>
-      </c>
-      <c r="B333" t="s">
-        <v>869</v>
-      </c>
-      <c r="C333" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>869</v>
+      </c>
+      <c r="B334" t="s">
+        <v>870</v>
+      </c>
+      <c r="C334" t="s">
         <v>871</v>
-      </c>
-      <c r="B334" t="s">
-        <v>872</v>
-      </c>
-      <c r="C334" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>872</v>
+      </c>
+      <c r="B335" t="s">
+        <v>873</v>
+      </c>
+      <c r="C335" t="s">
         <v>874</v>
-      </c>
-      <c r="B335" t="s">
-        <v>875</v>
-      </c>
-      <c r="C335" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B336" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>877</v>
+      </c>
+      <c r="B337" t="s">
+        <v>878</v>
+      </c>
+      <c r="C337" t="s">
         <v>879</v>
       </c>
-      <c r="B337" t="s">
+      <c r="D337" t="s">
         <v>880</v>
       </c>
-      <c r="C337" t="s">
-        <v>881</v>
-      </c>
-      <c r="D337" t="s">
-        <v>882</v>
-      </c>
       <c r="E337" t="s">
+        <v>969</v>
+      </c>
+      <c r="F337" t="s">
+        <v>970</v>
+      </c>
+      <c r="G337" t="s">
         <v>971</v>
       </c>
-      <c r="F337" t="s">
+      <c r="H337" t="s">
         <v>972</v>
       </c>
-      <c r="G337" t="s">
+      <c r="I337" t="s">
         <v>973</v>
-      </c>
-      <c r="H337" t="s">
-        <v>974</v>
-      </c>
-      <c r="I337" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B338" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>883</v>
+      </c>
+      <c r="B339" t="s">
+        <v>884</v>
+      </c>
+      <c r="C339" t="s">
         <v>885</v>
-      </c>
-      <c r="B339" t="s">
-        <v>886</v>
-      </c>
-      <c r="C339" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>886</v>
+      </c>
+      <c r="B340" t="s">
+        <v>887</v>
+      </c>
+      <c r="C340" t="s">
         <v>888</v>
-      </c>
-      <c r="B340" t="s">
-        <v>889</v>
-      </c>
-      <c r="C340" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>889</v>
+      </c>
+      <c r="B341" t="s">
+        <v>890</v>
+      </c>
+      <c r="C341" t="s">
         <v>891</v>
-      </c>
-      <c r="B341" t="s">
-        <v>892</v>
-      </c>
-      <c r="C341" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B342" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B343" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>896</v>
+      </c>
+      <c r="B344" t="s">
+        <v>897</v>
+      </c>
+      <c r="C344" t="s">
         <v>898</v>
-      </c>
-      <c r="B344" t="s">
-        <v>899</v>
-      </c>
-      <c r="C344" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>899</v>
+      </c>
+      <c r="B345" t="s">
+        <v>900</v>
+      </c>
+      <c r="C345" t="s">
         <v>901</v>
-      </c>
-      <c r="B345" t="s">
-        <v>902</v>
-      </c>
-      <c r="C345" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>902</v>
+      </c>
+      <c r="B346" t="s">
+        <v>903</v>
+      </c>
+      <c r="C346" t="s">
         <v>904</v>
-      </c>
-      <c r="B346" t="s">
-        <v>905</v>
-      </c>
-      <c r="C346" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B347" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>907</v>
+      </c>
+      <c r="B348" t="s">
+        <v>908</v>
+      </c>
+      <c r="C348" t="s">
         <v>909</v>
       </c>
-      <c r="B348" t="s">
+      <c r="D348" t="s">
         <v>910</v>
-      </c>
-      <c r="C348" t="s">
-        <v>911</v>
-      </c>
-      <c r="D348" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B349" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B350" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B351" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>917</v>
+      </c>
+      <c r="B352" t="s">
+        <v>918</v>
+      </c>
+      <c r="C352" t="s">
         <v>919</v>
       </c>
-      <c r="B352" t="s">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>920</v>
       </c>
-      <c r="C352" t="s">
+      <c r="B353" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>922</v>
-      </c>
-      <c r="B353" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>923</v>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>306</v>
+      </c>
+      <c r="B355" t="s">
+        <v>977</v>
+      </c>
+      <c r="C355" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>577</v>
+      </c>
+      <c r="B356" t="s">
+        <v>578</v>
+      </c>
+      <c r="C356" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>886</v>
+      </c>
+      <c r="B357" t="s">
+        <v>887</v>
+      </c>
+      <c r="C357" t="s">
+        <v>888</v>
+      </c>
+      <c r="D357" t="s">
+        <v>980</v>
+      </c>
+      <c r="E357" t="s">
+        <v>981</v>
+      </c>
+      <c r="F357" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>983</v>
+      </c>
+      <c r="B358" t="s">
+        <v>984</v>
+      </c>
+      <c r="C358" t="s">
+        <v>985</v>
+      </c>
+      <c r="D358" t="s">
+        <v>986</v>
+      </c>
+      <c r="E358" t="s">
+        <v>987</v>
+      </c>
+      <c r="F358" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>989</v>
+      </c>
+      <c r="B359" t="s">
+        <v>990</v>
+      </c>
+      <c r="C359" t="s">
+        <v>991</v>
+      </c>
+      <c r="D359" t="s">
+        <v>992</v>
+      </c>
+      <c r="E359" t="s">
+        <v>993</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>995</v>
+      </c>
+      <c r="B360" t="s">
+        <v>994</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>996</v>
+      </c>
+      <c r="B361" t="s">
+        <v>996</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>997</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>998</v>
+      </c>
+      <c r="B363" t="s">
+        <v>999</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A949E6-03DA-4644-B09D-5D8D3A23ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501DC2C-EF6B-4868-B113-75E5F827D7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1022">
   <si>
     <t>Клиент</t>
   </si>
@@ -3453,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K363"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4702,371 +4702,377 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="C124" t="s">
+        <v>745</v>
+      </c>
+      <c r="D124" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>473</v>
-      </c>
-      <c r="C125" t="s">
-        <v>745</v>
-      </c>
-      <c r="D125" t="s">
-        <v>888</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="C126" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C127" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>476</v>
-      </c>
-      <c r="C128" t="s">
-        <v>747</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="C129" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C130" t="s">
-        <v>748</v>
+        <v>749</v>
+      </c>
+      <c r="D130" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C131" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D131" t="s">
-        <v>889</v>
+        <v>890</v>
+      </c>
+      <c r="E131" t="s">
+        <v>949</v>
+      </c>
+      <c r="F131" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C132" t="s">
-        <v>750</v>
-      </c>
-      <c r="D132" t="s">
-        <v>890</v>
-      </c>
-      <c r="E132" t="s">
-        <v>949</v>
-      </c>
-      <c r="F132" t="s">
-        <v>981</v>
+        <v>751</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" t="s">
-        <v>751</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="C134" t="s">
+        <v>752</v>
+      </c>
+      <c r="D134" t="s">
+        <v>891</v>
+      </c>
+      <c r="E134" t="s">
+        <v>950</v>
+      </c>
+      <c r="F134" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
-      </c>
-      <c r="C135" t="s">
-        <v>752</v>
-      </c>
-      <c r="D135" t="s">
-        <v>891</v>
-      </c>
-      <c r="E135" t="s">
-        <v>950</v>
-      </c>
-      <c r="F135" t="s">
-        <v>982</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" t="s">
-        <v>484</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="C138" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>486</v>
-      </c>
-      <c r="C139" t="s">
-        <v>753</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="C140" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C141" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>489</v>
-      </c>
-      <c r="C142" t="s">
-        <v>755</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s">
-        <v>491</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="C147" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>494</v>
-      </c>
-      <c r="C148" t="s">
-        <v>756</v>
+        <v>495</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="C149" t="s">
+        <v>757</v>
+      </c>
+      <c r="D149" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C150" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D150" t="s">
-        <v>892</v>
+        <v>893</v>
+      </c>
+      <c r="E150" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C151" t="s">
-        <v>758</v>
-      </c>
-      <c r="D151" t="s">
-        <v>893</v>
-      </c>
-      <c r="E151" t="s">
-        <v>951</v>
+        <v>759</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C152" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>499</v>
-      </c>
-      <c r="C153" t="s">
-        <v>760</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="C154" t="s">
+        <v>761</v>
+      </c>
+      <c r="D154" t="s">
+        <v>894</v>
+      </c>
+      <c r="E154" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>501</v>
-      </c>
-      <c r="C155" t="s">
-        <v>761</v>
-      </c>
-      <c r="D155" t="s">
-        <v>894</v>
-      </c>
-      <c r="E155" t="s">
-        <v>952</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C156" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C157" t="s">
         <v>762</v>
@@ -5074,2237 +5080,2207 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C158" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="D158" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C159" t="s">
-        <v>763</v>
-      </c>
-      <c r="D159" t="s">
-        <v>895</v>
+        <v>764</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>506</v>
-      </c>
-      <c r="C160" t="s">
-        <v>764</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="C161" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>508</v>
-      </c>
-      <c r="C162" t="s">
-        <v>765</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="C165" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>512</v>
-      </c>
-      <c r="C166" t="s">
-        <v>766</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="C169" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>516</v>
-      </c>
-      <c r="C170" t="s">
-        <v>767</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="C171" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>181</v>
-      </c>
-      <c r="B172" t="s">
-        <v>518</v>
-      </c>
-      <c r="C172" t="s">
-        <v>768</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>185</v>
-      </c>
-      <c r="B176" t="s">
-        <v>519</v>
-      </c>
-      <c r="C176" t="s">
-        <v>769</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="B177" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" t="s">
+        <v>770</v>
+      </c>
+      <c r="D177" t="s">
+        <v>896</v>
+      </c>
+      <c r="E177" t="s">
+        <v>953</v>
+      </c>
+      <c r="F177" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C178" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D178" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E178" t="s">
-        <v>953</v>
-      </c>
-      <c r="F178" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>521</v>
-      </c>
-      <c r="C179" t="s">
-        <v>771</v>
-      </c>
-      <c r="D179" t="s">
-        <v>897</v>
-      </c>
-      <c r="E179" t="s">
-        <v>954</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>189</v>
-      </c>
-      <c r="B180" t="s">
-        <v>522</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
+        <v>772</v>
+      </c>
+      <c r="D184" t="s">
+        <v>898</v>
+      </c>
+      <c r="E184" t="s">
+        <v>955</v>
+      </c>
+      <c r="F184" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>526</v>
-      </c>
-      <c r="C185" t="s">
-        <v>772</v>
-      </c>
-      <c r="D185" t="s">
-        <v>898</v>
-      </c>
-      <c r="E185" t="s">
-        <v>955</v>
-      </c>
-      <c r="F185" t="s">
-        <v>984</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="C187" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B188" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C188" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C189" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C190" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C191" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B192" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C192" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C193" t="s">
-        <v>778</v>
+        <v>779</v>
+      </c>
+      <c r="D193" t="s">
+        <v>899</v>
+      </c>
+      <c r="E193" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C194" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D194" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E194" t="s">
-        <v>956</v>
+        <v>957</v>
+      </c>
+      <c r="F194" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B195" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C195" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D195" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E195" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F195" t="s">
-        <v>985</v>
+        <v>986</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>537</v>
-      </c>
-      <c r="C196" t="s">
-        <v>781</v>
-      </c>
-      <c r="D196" t="s">
-        <v>901</v>
-      </c>
-      <c r="E196" t="s">
-        <v>958</v>
-      </c>
-      <c r="F196" t="s">
-        <v>986</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1003</v>
+        <v>538</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="C202" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>544</v>
-      </c>
-      <c r="C203" t="s">
-        <v>782</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="C204" t="s">
+        <v>783</v>
+      </c>
+      <c r="D204" t="s">
+        <v>902</v>
+      </c>
+      <c r="E204" t="s">
+        <v>959</v>
+      </c>
+      <c r="F204" t="s">
+        <v>987</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C205" t="s">
-        <v>783</v>
-      </c>
-      <c r="D205" t="s">
-        <v>902</v>
-      </c>
-      <c r="E205" t="s">
-        <v>959</v>
-      </c>
-      <c r="F205" t="s">
-        <v>987</v>
-      </c>
-      <c r="G205" t="s">
-        <v>1004</v>
+        <v>784</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C206" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="D206" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>548</v>
-      </c>
-      <c r="C207" t="s">
-        <v>785</v>
-      </c>
-      <c r="D207" t="s">
-        <v>903</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="C208" t="s">
+        <v>786</v>
+      </c>
+      <c r="D208" t="s">
+        <v>904</v>
+      </c>
+      <c r="E208" t="s">
+        <v>960</v>
+      </c>
+      <c r="F208" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209" t="s">
-        <v>550</v>
-      </c>
-      <c r="C209" t="s">
-        <v>786</v>
-      </c>
-      <c r="D209" t="s">
-        <v>904</v>
-      </c>
-      <c r="E209" t="s">
-        <v>960</v>
-      </c>
-      <c r="F209" t="s">
-        <v>988</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="B210" t="s">
+        <v>551</v>
+      </c>
+      <c r="C210" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>551</v>
-      </c>
-      <c r="C211" t="s">
-        <v>787</v>
+        <v>552</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="C212" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C213" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="D213" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B214" t="s">
-        <v>554</v>
-      </c>
-      <c r="C214" t="s">
-        <v>789</v>
-      </c>
-      <c r="D214" t="s">
-        <v>905</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>224</v>
-      </c>
-      <c r="B215" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B216" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B217" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B218" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="C218" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B219" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C219" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="D219" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C220" t="s">
-        <v>791</v>
-      </c>
-      <c r="D220" t="s">
-        <v>906</v>
+        <v>792</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C221" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="D221" t="s">
+        <v>907</v>
+      </c>
+      <c r="E221" t="s">
+        <v>961</v>
+      </c>
+      <c r="F221" t="s">
+        <v>989</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B222" t="s">
-        <v>561</v>
-      </c>
-      <c r="C222" t="s">
-        <v>793</v>
-      </c>
-      <c r="D222" t="s">
-        <v>907</v>
-      </c>
-      <c r="E222" t="s">
-        <v>961</v>
-      </c>
-      <c r="F222" t="s">
-        <v>989</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1014</v>
+        <v>562</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="C223" t="s">
+        <v>794</v>
+      </c>
+      <c r="D223" t="s">
+        <v>908</v>
+      </c>
+      <c r="E223" t="s">
+        <v>962</v>
+      </c>
+      <c r="F223" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>563</v>
+        <v>565</v>
+      </c>
+      <c r="C224" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C225" t="s">
-        <v>794</v>
-      </c>
-      <c r="D225" t="s">
-        <v>908</v>
-      </c>
-      <c r="E225" t="s">
-        <v>962</v>
-      </c>
-      <c r="F225" t="s">
-        <v>990</v>
+        <v>796</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>565</v>
-      </c>
-      <c r="C226" t="s">
-        <v>795</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C227" t="s">
-        <v>796</v>
+        <v>797</v>
+      </c>
+      <c r="D227" t="s">
+        <v>909</v>
+      </c>
+      <c r="E227" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C229" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D229" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E229" t="s">
-        <v>963</v>
+        <v>964</v>
+      </c>
+      <c r="F229" t="s">
+        <v>991</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>240</v>
-      </c>
-      <c r="B231" t="s">
-        <v>570</v>
-      </c>
-      <c r="C231" t="s">
-        <v>798</v>
-      </c>
-      <c r="D231" t="s">
-        <v>910</v>
-      </c>
-      <c r="E231" t="s">
-        <v>964</v>
-      </c>
-      <c r="F231" t="s">
-        <v>991</v>
-      </c>
-      <c r="G231" t="s">
-        <v>1006</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="C232" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B233" t="s">
+        <v>573</v>
+      </c>
+      <c r="C233" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C234" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>573</v>
-      </c>
-      <c r="C235" t="s">
-        <v>800</v>
+        <v>575</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C236" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="D236" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>575</v>
+        <v>577</v>
+      </c>
+      <c r="C237" t="s">
+        <v>803</v>
+      </c>
+      <c r="D237" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C238" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D238" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C239" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D239" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>578</v>
-      </c>
-      <c r="C240" t="s">
-        <v>804</v>
-      </c>
-      <c r="D240" t="s">
-        <v>913</v>
+        <v>580</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C241" t="s">
-        <v>805</v>
-      </c>
-      <c r="D241" t="s">
-        <v>914</v>
+        <v>806</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>580</v>
+        <v>582</v>
+      </c>
+      <c r="C242" t="s">
+        <v>807</v>
+      </c>
+      <c r="D242" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>581</v>
-      </c>
-      <c r="C243" t="s">
-        <v>806</v>
+        <v>583</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C244" t="s">
-        <v>807</v>
-      </c>
-      <c r="D244" t="s">
-        <v>915</v>
+        <v>808</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>583</v>
+        <v>585</v>
+      </c>
+      <c r="C245" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>584</v>
-      </c>
-      <c r="C246" t="s">
-        <v>808</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>585</v>
-      </c>
-      <c r="C247" t="s">
-        <v>809</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>586</v>
+        <v>588</v>
+      </c>
+      <c r="C248" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>258</v>
-      </c>
-      <c r="B249" t="s">
-        <v>587</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>259</v>
-      </c>
-      <c r="B250" t="s">
-        <v>588</v>
-      </c>
-      <c r="C250" t="s">
-        <v>810</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="B251" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="B252" t="s">
+        <v>590</v>
+      </c>
+      <c r="C252" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="C253" t="s">
+        <v>812</v>
+      </c>
+      <c r="D253" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>263</v>
-      </c>
-      <c r="B254" t="s">
-        <v>590</v>
-      </c>
-      <c r="C254" t="s">
-        <v>811</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C255" t="s">
-        <v>812</v>
-      </c>
-      <c r="D255" t="s">
-        <v>916</v>
+        <v>813</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="B256" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>592</v>
-      </c>
-      <c r="C257" t="s">
-        <v>813</v>
+        <v>594</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>593</v>
+        <v>595</v>
+      </c>
+      <c r="C258" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C260" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>596</v>
+        <v>598</v>
+      </c>
+      <c r="C261" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C262" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C263" t="s">
-        <v>816</v>
+        <v>818</v>
+      </c>
+      <c r="D263" t="s">
+        <v>917</v>
+      </c>
+      <c r="E263" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C264" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C265" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D265" t="s">
-        <v>917</v>
-      </c>
-      <c r="E265" t="s">
-        <v>965</v>
+        <v>918</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>601</v>
-      </c>
-      <c r="C266" t="s">
-        <v>819</v>
+        <v>603</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>602</v>
-      </c>
-      <c r="C267" t="s">
-        <v>820</v>
-      </c>
-      <c r="D267" t="s">
-        <v>918</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>603</v>
+        <v>605</v>
+      </c>
+      <c r="C268" t="s">
+        <v>821</v>
+      </c>
+      <c r="D268" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>279</v>
-      </c>
-      <c r="B270" t="s">
-        <v>605</v>
-      </c>
-      <c r="C270" t="s">
-        <v>821</v>
-      </c>
-      <c r="D270" t="s">
-        <v>919</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="B272" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>609</v>
+        <v>611</v>
+      </c>
+      <c r="C275" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>611</v>
-      </c>
-      <c r="C277" t="s">
-        <v>822</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>613</v>
+        <v>615</v>
+      </c>
+      <c r="C279" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C281" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="D281" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="C282" t="s">
+        <v>825</v>
+      </c>
+      <c r="D282" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C283" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D283" t="s">
-        <v>920</v>
+        <v>922</v>
+      </c>
+      <c r="E283" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>618</v>
-      </c>
-      <c r="C284" t="s">
-        <v>825</v>
-      </c>
-      <c r="D284" t="s">
-        <v>921</v>
+        <v>620</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C285" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D285" t="s">
-        <v>922</v>
-      </c>
-      <c r="E285" t="s">
-        <v>966</v>
+        <v>923</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>620</v>
+        <v>622</v>
+      </c>
+      <c r="C286" t="s">
+        <v>828</v>
+      </c>
+      <c r="D286" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C287" t="s">
-        <v>827</v>
-      </c>
-      <c r="D287" t="s">
-        <v>923</v>
+        <v>829</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>297</v>
-      </c>
-      <c r="B288" t="s">
-        <v>622</v>
-      </c>
-      <c r="C288" t="s">
-        <v>828</v>
-      </c>
-      <c r="D288" t="s">
-        <v>924</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>623</v>
-      </c>
-      <c r="C289" t="s">
-        <v>829</v>
+        <v>624</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="B290" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="C293" t="s">
+        <v>830</v>
+      </c>
+      <c r="D293" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>628</v>
-      </c>
-      <c r="C295" t="s">
-        <v>830</v>
-      </c>
-      <c r="D295" t="s">
-        <v>925</v>
+        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>629</v>
+        <v>631</v>
+      </c>
+      <c r="C296" t="s">
+        <v>831</v>
+      </c>
+      <c r="D296" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="C297" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C298" t="s">
-        <v>831</v>
-      </c>
-      <c r="D298" t="s">
-        <v>926</v>
+        <v>833</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C299" t="s">
-        <v>832</v>
+        <v>834</v>
+      </c>
+      <c r="D299" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>633</v>
-      </c>
-      <c r="C300" t="s">
-        <v>833</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C301" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D301" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="E301" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C303" t="s">
-        <v>835</v>
-      </c>
-      <c r="D303" t="s">
-        <v>928</v>
-      </c>
-      <c r="E303" t="s">
-        <v>762</v>
+        <v>836</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>637</v>
+        <v>639</v>
+      </c>
+      <c r="C304" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>638</v>
-      </c>
-      <c r="C305" t="s">
-        <v>836</v>
+        <v>640</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C306" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="C307" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>641</v>
-      </c>
-      <c r="C308" t="s">
-        <v>838</v>
+        <v>643</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C309" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>643</v>
+        <v>645</v>
+      </c>
+      <c r="C310" t="s">
+        <v>841</v>
+      </c>
+      <c r="D310" t="s">
+        <v>929</v>
+      </c>
+      <c r="E310" t="s">
+        <v>967</v>
+      </c>
+      <c r="F310" t="s">
+        <v>992</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>644</v>
-      </c>
-      <c r="C311" t="s">
-        <v>840</v>
+        <v>646</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>645</v>
-      </c>
-      <c r="C312" t="s">
-        <v>841</v>
-      </c>
-      <c r="D312" t="s">
-        <v>929</v>
-      </c>
-      <c r="E312" t="s">
-        <v>967</v>
-      </c>
-      <c r="F312" t="s">
-        <v>992</v>
-      </c>
-      <c r="G312" t="s">
-        <v>1007</v>
+        <v>647</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="C313" t="s">
+        <v>842</v>
+      </c>
+      <c r="D313" t="s">
+        <v>930</v>
+      </c>
+      <c r="E313" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>647</v>
+        <v>649</v>
+      </c>
+      <c r="C314" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C315" t="s">
         <v>842</v>
       </c>
       <c r="D315" t="s">
-        <v>930</v>
-      </c>
-      <c r="E315" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C316" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>650</v>
-      </c>
-      <c r="C317" t="s">
-        <v>842</v>
-      </c>
-      <c r="D317" t="s">
-        <v>931</v>
+        <v>652</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>651</v>
-      </c>
-      <c r="C318" t="s">
-        <v>843</v>
+        <v>653</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>655</v>
+        <v>657</v>
+      </c>
+      <c r="C322" t="s">
+        <v>844</v>
+      </c>
+      <c r="D322" t="s">
+        <v>932</v>
+      </c>
+      <c r="E322" t="s">
+        <v>969</v>
+      </c>
+      <c r="F322" t="s">
+        <v>993</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>656</v>
+        <v>658</v>
+      </c>
+      <c r="C323" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C324" t="s">
-        <v>844</v>
-      </c>
-      <c r="D324" t="s">
-        <v>932</v>
-      </c>
-      <c r="E324" t="s">
-        <v>969</v>
-      </c>
-      <c r="F324" t="s">
-        <v>993</v>
-      </c>
-      <c r="G324" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1018</v>
+        <v>842</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>658</v>
-      </c>
-      <c r="C325" t="s">
-        <v>842</v>
+        <v>660</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>659</v>
-      </c>
-      <c r="C326" t="s">
-        <v>842</v>
+        <v>661</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>660</v>
+        <v>662</v>
+      </c>
+      <c r="C327" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>338</v>
-      </c>
-      <c r="B329" t="s">
-        <v>662</v>
-      </c>
-      <c r="C329" t="s">
-        <v>845</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>663</v>
+        <v>664</v>
+      </c>
+      <c r="C330" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="B331" t="s">
+        <v>665</v>
+      </c>
+      <c r="C331" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C332" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C333" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>666</v>
-      </c>
-      <c r="C334" t="s">
-        <v>848</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C335" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="D335" t="s">
+        <v>933</v>
+      </c>
+      <c r="E335" t="s">
+        <v>970</v>
+      </c>
+      <c r="F335" t="s">
+        <v>994</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C337" t="s">
-        <v>850</v>
-      </c>
-      <c r="D337" t="s">
-        <v>933</v>
-      </c>
-      <c r="E337" t="s">
-        <v>970</v>
-      </c>
-      <c r="F337" t="s">
-        <v>994</v>
-      </c>
-      <c r="G337" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H337" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="C338" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B339" t="s">
-        <v>671</v>
-      </c>
-      <c r="C339" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B340" t="s">
-        <v>672</v>
-      </c>
-      <c r="C340" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B341" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C341" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B342" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+      <c r="C342" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B343" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="C343" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B344" t="s">
-        <v>676</v>
-      </c>
-      <c r="C344" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B345" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C345" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+      <c r="D345" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B346" t="s">
-        <v>678</v>
-      </c>
-      <c r="C346" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B347" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B348" t="s">
-        <v>680</v>
-      </c>
-      <c r="C348" t="s">
-        <v>857</v>
-      </c>
-      <c r="D348" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B349" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+      <c r="C349" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B350" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="C350" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>360</v>
-      </c>
-      <c r="B351" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="B352" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C352" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="B353" t="s">
-        <v>685</v>
+        <v>563</v>
       </c>
       <c r="C353" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="B354" t="s">
+        <v>672</v>
+      </c>
+      <c r="C354" t="s">
+        <v>852</v>
+      </c>
+      <c r="D354" t="s">
+        <v>935</v>
+      </c>
+      <c r="E354" t="s">
+        <v>971</v>
+      </c>
+      <c r="F354" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C355" t="s">
-        <v>860</v>
+        <v>862</v>
+      </c>
+      <c r="D355" t="s">
+        <v>936</v>
+      </c>
+      <c r="E355" t="s">
+        <v>972</v>
+      </c>
+      <c r="F355" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="B356" t="s">
-        <v>563</v>
+        <v>688</v>
       </c>
       <c r="C356" t="s">
-        <v>861</v>
+        <v>863</v>
+      </c>
+      <c r="D356" t="s">
+        <v>937</v>
+      </c>
+      <c r="E356" t="s">
+        <v>973</v>
+      </c>
+      <c r="F356" t="s">
+        <v>997</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B357" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="C357" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="D357" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E357" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F357" t="s">
-        <v>995</v>
+        <v>998</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B358" t="s">
-        <v>687</v>
+        <v>367</v>
       </c>
       <c r="C358" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D358" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E358" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F358" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B359" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C359" t="s">
-        <v>863</v>
-      </c>
-      <c r="D359" t="s">
-        <v>937</v>
-      </c>
-      <c r="E359" t="s">
-        <v>973</v>
-      </c>
-      <c r="F359" t="s">
-        <v>997</v>
-      </c>
-      <c r="G359" t="s">
-        <v>1010</v>
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B360" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C360" t="s">
-        <v>864</v>
-      </c>
-      <c r="D360" t="s">
-        <v>938</v>
-      </c>
-      <c r="E360" t="s">
-        <v>974</v>
-      </c>
-      <c r="F360" t="s">
-        <v>998</v>
-      </c>
-      <c r="G360" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>367</v>
-      </c>
-      <c r="B361" t="s">
-        <v>367</v>
-      </c>
-      <c r="C361" t="s">
-        <v>865</v>
-      </c>
-      <c r="D361" t="s">
-        <v>939</v>
-      </c>
-      <c r="E361" t="s">
-        <v>975</v>
-      </c>
-      <c r="F361" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>368</v>
-      </c>
-      <c r="B362" t="s">
-        <v>690</v>
-      </c>
-      <c r="C362" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>369</v>
-      </c>
-      <c r="B363" t="s">
-        <v>691</v>
-      </c>
-      <c r="C363" t="s">
         <v>867</v>
       </c>
     </row>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18C2D4-FB5B-4802-86EF-B83AE84D9107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6E662-F095-4AD7-85C4-52C2730B10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="934">
   <si>
     <t>Клиент</t>
   </si>
@@ -2819,6 +2819,9 @@
   </si>
   <si>
     <t xml:space="preserve"> О’КЕЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вкусвилл</t>
   </si>
 </sst>
 </file>
@@ -3188,26 +3191,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3284,12 +3287,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3308,12 +3311,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3329,12 +3332,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3419,12 +3422,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3435,12 +3438,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3559,12 +3562,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3594,12 +3597,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3701,12 +3704,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3714,12 +3717,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3744,22 +3747,22 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3794,12 +3797,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3810,12 +3813,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -3928,12 +3931,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -3981,12 +3984,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4021,12 +4024,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -4094,17 +4097,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -4140,27 +4143,27 @@
         <v>677</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -4168,12 +4171,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -4190,12 +4193,12 @@
         <v>857</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -4219,12 +4222,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -4247,12 +4250,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -4326,12 +4329,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -4366,12 +4369,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -4385,12 +4388,15 @@
         <v>801</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -4515,12 +4521,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -4548,12 +4554,12 @@
         <v>862</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -4567,7 +4573,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -4640,12 +4646,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>167</v>
       </c>
@@ -4750,17 +4756,17 @@
         <v>864</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>170</v>
       </c>
@@ -4768,7 +4774,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -4806,12 +4812,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -4819,12 +4825,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -4848,17 +4854,17 @@
         <v>502</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -4866,12 +4872,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -4908,12 +4914,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -4945,12 +4951,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -4980,7 +4986,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -4988,12 +4994,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -5015,12 +5021,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -5053,17 +5059,17 @@
         <v>708</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -5096,12 +5102,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -5126,12 +5132,12 @@
         <v>868</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -5142,22 +5148,22 @@
         <v>711</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>218</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>219</v>
       </c>
@@ -5184,7 +5190,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>220</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -5217,17 +5223,17 @@
         <v>817</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>225</v>
       </c>
@@ -5235,7 +5241,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>226</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>229</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>231</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>232</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>233</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -5376,7 +5382,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -5412,12 +5418,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -5524,17 +5530,17 @@
         <v>730</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -5587,17 +5593,17 @@
         <v>915</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -5616,12 +5622,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -5635,12 +5641,12 @@
         <v>825</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -5648,12 +5654,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -5667,12 +5673,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -5691,12 +5697,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -5794,17 +5800,17 @@
         <v>574</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>281</v>
       </c>
@@ -5815,12 +5821,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>283</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -5851,7 +5857,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>285</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>288</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>289</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>290</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>291</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>292</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>294</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>295</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>296</v>
       </c>
@@ -5983,7 +5989,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -5997,7 +6003,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>298</v>
       </c>
@@ -6005,7 +6011,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>299</v>
       </c>
@@ -6013,17 +6019,17 @@
         <v>592</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>303</v>
       </c>
@@ -6045,12 +6051,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>306</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>307</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>308</v>
       </c>
@@ -6085,7 +6091,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>309</v>
       </c>
@@ -6093,7 +6099,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>310</v>
       </c>
@@ -6107,12 +6113,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>312</v>
       </c>
@@ -6123,17 +6129,17 @@
         <v>755</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>315</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -6149,12 +6155,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>318</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>319</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>320</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>321</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>322</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -6242,17 +6248,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -6263,7 +6269,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -6302,17 +6308,17 @@
         <v>898</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>336</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>337</v>
       </c>
@@ -6350,12 +6356,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>339</v>
       </c>
@@ -6366,7 +6372,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>340</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>341</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -6396,12 +6402,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>344</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>345</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>346</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>347</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>349</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>350</v>
       </c>
@@ -6496,7 +6502,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>351</v>
       </c>
@@ -6510,7 +6516,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>352</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>353</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>354</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -6551,12 +6557,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>358</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -6595,12 +6601,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>361</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>362</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>363</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>365</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>366</v>
       </c>
@@ -6702,7 +6708,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>367</v>
       </c>
@@ -6722,12 +6728,12 @@
         <v>902</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>369</v>
       </c>
@@ -6735,7 +6741,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>928</v>
       </c>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6E662-F095-4AD7-85C4-52C2730B10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A2C72-8A24-4230-A90F-3F184EF1B23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="939">
   <si>
     <t>Клиент</t>
   </si>
@@ -2822,6 +2822,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Вкусвилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LetterOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance Heavy Industries</t>
   </si>
 </sst>
 </file>
@@ -3191,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,6 +3325,15 @@
       <c r="B7" t="s">
         <v>374</v>
       </c>
+      <c r="C7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D7" t="s">
+        <v>935</v>
+      </c>
+      <c r="E7" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3574,6 +3598,9 @@
       <c r="B34" t="s">
         <v>396</v>
       </c>
+      <c r="C34" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3787,6 +3814,9 @@
       </c>
       <c r="B57" t="s">
         <v>413</v>
+      </c>
+      <c r="C57" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6E662-F095-4AD7-85C4-52C2730B10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A002F3-6C15-40B5-BF00-0CD9A7C63A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2370" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="939">
   <si>
     <t>Клиент</t>
   </si>
@@ -2822,6 +2822,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Вкусвилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дискаунтеров ДА!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дискаунтер ДА!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дискаунтер Да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1дск</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-го дск</t>
   </si>
 </sst>
 </file>
@@ -3191,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,6 +3270,12 @@
       <c r="C2" t="s">
         <v>645</v>
       </c>
+      <c r="D2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5335,7 +5356,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -5346,7 +5367,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -5354,7 +5375,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -5371,7 +5392,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -5381,8 +5402,17 @@
       <c r="C228" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>934</v>
+      </c>
+      <c r="E228" t="s">
+        <v>935</v>
+      </c>
+      <c r="F228" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -5399,7 +5429,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -5407,7 +5437,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -5418,12 +5448,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -5434,7 +5464,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -5448,7 +5478,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -5456,7 +5486,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -5467,7 +5497,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -5478,7 +5508,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -5486,7 +5516,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -5500,7 +5530,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -6153,6 +6183,9 @@
       </c>
       <c r="B307" t="s">
         <v>602</v>
+      </c>
+      <c r="C307" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A002F3-6C15-40B5-BF00-0CD9A7C63A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157DA970-F888-4E11-B6ED-981FC36BD9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2370" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="940">
   <si>
     <t>Клиент</t>
   </si>
@@ -2837,6 +2837,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1-го дск</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Почты России</t>
   </si>
 </sst>
 </file>
@@ -3206,26 +3209,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3308,12 +3311,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3332,12 +3335,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3353,12 +3356,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3443,12 +3446,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3459,12 +3462,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3583,12 +3586,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3618,12 +3621,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3725,12 +3728,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3738,12 +3741,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3768,22 +3771,22 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3818,12 +3821,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3834,12 +3837,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -3952,12 +3955,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -4005,12 +4008,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4045,12 +4048,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -4118,17 +4121,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -4164,27 +4167,27 @@
         <v>677</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -4192,12 +4195,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -4214,12 +4217,12 @@
         <v>857</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -4243,12 +4246,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -4271,12 +4274,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -4350,12 +4353,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -4390,12 +4393,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -4431,7 +4434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -4542,12 +4545,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -4575,12 +4578,12 @@
         <v>862</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -4667,12 +4670,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>167</v>
       </c>
@@ -4777,17 +4780,17 @@
         <v>864</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>170</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -4833,12 +4836,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -4846,12 +4849,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -4875,17 +4878,17 @@
         <v>502</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -4893,12 +4896,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -4935,12 +4938,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -4972,12 +4975,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -5015,12 +5018,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -5042,12 +5045,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -5080,17 +5083,17 @@
         <v>708</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -5123,12 +5126,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -5153,12 +5156,12 @@
         <v>868</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -5169,22 +5172,22 @@
         <v>711</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>218</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>219</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>220</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -5244,17 +5247,17 @@
         <v>817</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>225</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>226</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>229</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>231</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>232</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>233</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -5448,12 +5451,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -5540,8 +5543,11 @@
       <c r="C240" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -5560,17 +5566,17 @@
         <v>730</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -5597,7 +5603,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -5623,17 +5629,17 @@
         <v>915</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -5652,12 +5658,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -5671,12 +5677,12 @@
         <v>825</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -5684,12 +5690,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -5703,12 +5709,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -5727,12 +5733,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -5768,7 +5774,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -5830,17 +5836,17 @@
         <v>574</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>281</v>
       </c>
@@ -5851,12 +5857,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>283</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>285</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -5909,7 +5915,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>288</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>289</v>
       </c>
@@ -5933,7 +5939,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>290</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>291</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>292</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>294</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>295</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>296</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>298</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>299</v>
       </c>
@@ -6049,17 +6055,17 @@
         <v>592</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -6073,7 +6079,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>303</v>
       </c>
@@ -6081,12 +6087,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>306</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>307</v>
       </c>
@@ -6113,7 +6119,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>308</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>309</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>310</v>
       </c>
@@ -6143,12 +6149,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>312</v>
       </c>
@@ -6159,17 +6165,17 @@
         <v>755</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>315</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -6188,12 +6194,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>318</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>319</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>320</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>321</v>
       </c>
@@ -6246,7 +6252,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>322</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -6281,17 +6287,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -6310,7 +6316,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -6341,17 +6347,17 @@
         <v>898</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>336</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>337</v>
       </c>
@@ -6389,12 +6395,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>339</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>340</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>341</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -6435,12 +6441,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>344</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>345</v>
       </c>
@@ -6483,7 +6489,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>346</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>347</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>349</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>350</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>351</v>
       </c>
@@ -6549,7 +6555,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>352</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>353</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>354</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -6590,12 +6596,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>358</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -6634,12 +6640,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>361</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>362</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>363</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>365</v>
       </c>
@@ -6724,7 +6730,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>366</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>367</v>
       </c>
@@ -6761,12 +6767,12 @@
         <v>902</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>369</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>928</v>
       </c>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157DA970-F888-4E11-B6ED-981FC36BD9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32457C-97EE-4197-BEFB-1BFC86988C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1370">
   <si>
     <t>Клиент</t>
   </si>
@@ -1552,9 +1565,6 @@
     <t xml:space="preserve"> Копорации А.Н.Д.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Дикси</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ланит</t>
   </si>
   <si>
@@ -2840,6 +2850,1299 @@
   </si>
   <si>
     <t xml:space="preserve"> Почты России</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бабилон</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Группа Степь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Касторама</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castorama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Группа Гусева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сладкая Жизнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Втб</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Костин Андрей Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Леонидович Костин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Костин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Костин Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Л. Костин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Костин А. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Костин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк ГПБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Газпромбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Акимов Андрей Игоревич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Игоревич Акимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Акимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Акимов Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. И. Акимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Акимов А. И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Акимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нко нкц</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НКЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Марич Игорь Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Игорь Леонидович Марич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Игорь Марич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Марич Игорь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. Л. Марич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Марич И. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. Марич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Альфа-банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Альфа Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Альфабанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сысуев Олег Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Олег Николаевич Сысуев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Олег Сысуев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сысуев Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О. Н. Сысуев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сысуев О. Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О. Сысуев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Россельхозбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РСХБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Листов Борис Павлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Борис Павлович Листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Борис Листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Листов Борис</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Б. П. Листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Листов Б. П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Б. Листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Промсвязьбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПСБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фрадков Петр Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Петр Михайлович Фрадков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Петр Фрадков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фрадков Петр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П. М. Фрадков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фрадков П. М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П. Фрадков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Московский кредитный банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Авдеев Роман Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Роман Иванович Авдеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Роман Авдеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Авдеев Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Р. И. Авдеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Авдеев Р. И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Р. Авдеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФК Открытие</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексеев Михаил Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Юрьевич Алексеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Алексеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексеев Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Ю. Алексеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексеев М. Ю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Алексеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Совкомбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гусев Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дмитрий Владимирович Гусев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дмитрий Гусев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гусев Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. В. Гусев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гусев Д. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. Гусев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Райффайзенбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Райффайзен</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Монин Сергей Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сергей Александрович Монин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сергей Монин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Монин Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. А. Монин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Монин С. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. Монин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПАО Росбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РОСБАНК</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляков Илья Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Илья Андреевич Поляков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Илья Поляков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляков Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. А. Поляков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляков И. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. Поляков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тинькофф банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тинькофф</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Близнюк Станислав Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Станислав Викторович Близнюк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Станислав Близнюк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Близнюк Станислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. В. Близнюк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Близнюк С. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. Близнюк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЮниКредит Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЮниКредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жуков-Емельянов Кирилл Олегович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кирилл Олегович Жуков-Емельянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кирилл Жуков-Емельянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жуков-Емельянов Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К. О. Жуков-Емельянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жуков-Емельянов К. О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К. Жуков-Емельянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк ВБРР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВБРР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всероссийский банк развития регионов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Маликова Дина Ринатовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дина Ринатовна Маликова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дина Маликова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Маликова Дина</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. Р. Маликова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Маликова Д. Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. Маликова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АБ Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Клишин Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Алексеевич Клишин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Клишин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Клишин Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. А. Клишин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Клишин М. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Клишин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Дом.РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дом.РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Федорко Артем Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Артем Николаевич Федорко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Артем Федорко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Федорко Артем</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Н. Федорко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Федорко А. Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Федорко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Санкт-Петербург</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Савельев Александр Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Васильевич Савельев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Савельев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Савельев Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. В. Савельев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Савельев А. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Савельев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КБ Ситибанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ситибанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иванова Мария Львовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мария Львовна Иванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мария Иванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иванова Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Л. Иванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иванова М. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Иванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СМП Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СМП</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левковский Александр Анатольевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Анатольевич Левковский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Левковский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левковский Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. А. Левковский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левковский А. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Левковский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ак Барс Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АК БАРС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБАРС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гараев Зуфар Фанилович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зуфар Фанилович Гараев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зуфар Гараев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гараев Зуфар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> З. Ф. Гараев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гараев З. Ф.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> З. Гараев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБ Новикомбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Новикомбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Георгиева Елена Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Елена Александровна Георгиева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Елена Георгиева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Георгиева Елена</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Е. А. Георгиева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Георгиева Е. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Е. Георгиева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Уралсиб</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уралсиб</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сазонов Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Валерьевич Сазонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Сазонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сазонов Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. В. Сазонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сазонов А. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Сазонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БМ-Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Толкачева Светлана Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Светлана Владимировна Толкачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Светлана Толкачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Толкачева Светлана</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. В. Толкачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Толкачева С. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. Толкачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Почта Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пахомов Александр Владиславич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Владиславич Пахомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Пахомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пахомов Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. В. Пахомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пахомов А. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Пахомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мособлбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Морсин Владимир Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Владимир Васильевич Морсин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Владимир Морсин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Морсин Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. В. Морсин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Морсин В. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Морсин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБ Пересвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пересвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Никишев Юрий Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Юрий Юрьевич Никишев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Юрий Никишев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Никишев Юрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ю. Ю. Никишев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Никишев Ю. Ю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ю. Никишев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КБ Убрир</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> УБРиР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уральский банк реконструкции и развития</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соловьев Антон Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Антон Юрьевич Соловьев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Антон Соловьев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соловьев Антон</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Ю. Соловьев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соловьев А. Ю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Соловьев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РНКБ Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РНКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Российский национальный коммерческий банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Якунин Михаил Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Леонидович Якунин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Михаил Якунин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Якунин Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Л. Якунин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Якунин М. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. Якунин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нко нрд</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жидков Виктор Олегович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Виктор Олегович Жидков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Виктор Жидков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жидков Виктор</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. О. Жидков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жидков В. О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Жидков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МТС-банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Филатов Илья Валентинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Илья Валентинович Филатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Илья Филатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Филатов Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. В. Филатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Филатов И. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И. Филатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХКФ Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХКФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоум Кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скабара Александр Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Александрович Скабара</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Скабара</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скабара Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. А. Скабара</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скабара А. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Скабара</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Траст</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соколов Александр Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Константинович Соколов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Александр Соколов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соколов Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. К. Соколов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Соколов А. К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Соколов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБ Абсолют Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Абсолют Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шогенов Аслан Ауесович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аслан Ауесович Шогенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аслан Шогенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шогенов Аслан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. А. Шогенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шогенов А. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Шогенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Зенит</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЗЕНИТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Романов Дмитрий Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дмитрий Михайлович Романов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дмитрий Романов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Романов Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. М. Романов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Романов Д. М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д. Романов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк русский стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Русский Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Берестовой Сергей Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сергей Викторович Берестовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сергей Берестовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Берестовой Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. В. Берестовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Берестовой С. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С. Берестовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ткб банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТКБ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТранскапиталБанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ивановский Евгений Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Евгений Леонидович Ивановский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Евгений Ивановский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ивановский Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Е. Л. Ивановский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ивановский Е. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Е. Ивановский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Росэксимбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Азер Муталим оглы Талыбов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Экспобанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нифонтов Кирилл Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кирилл Владимирович Нифонтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кирилл Нифонтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нифонтов Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К. В. Нифонтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нифонтов К. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К. Нифонтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВУЗ-Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВУЗ-банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изевлин Геннадий Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Геннадий Викторович Изевлин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Геннадий Изевлин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изевлин Геннадий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Г. В. Изевлин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изевлин Г. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Г. Изевлин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОТП банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коровин Алексей Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Александрович Коровин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Коровин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коровин Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. А. Коровин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коровин А. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Коровин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ренессанс Кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РенКредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левченко Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Валерьевич Левченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Левченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левченко Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. В. Левченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Левченко А. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Левченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Таврический Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зварич Павел Петрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Павел Петрович Зварич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Павел Зварич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зварич Павел</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П. П. Зварич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зварич П. П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П. Зварич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБ металлинвестбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Металлинвестбанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кузьмич Татьяна Вадимовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Татьяна Вадимовна Кузьмич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Татьяна Кузьмич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кузьмич Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Т. В. Кузьмич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кузьмич Т. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Т. Кузьмич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РГС Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РГС </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Токарев Алексей Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Александрович Токарев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алексей Токарев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Токарев Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. А. Токарев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Токарев А. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Токарев</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АКБ Авангард</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АВАНГАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Торхов Валерий Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валерий Леонидович Торхов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валерий Торхов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Торхов Валерий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Л. Торхов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Торхов В. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Торхов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Евразия</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бельянинов Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Юрьевич Бельянинов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Андрей Бельянинов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бельянинов Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Ю. Бельянинов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бельянинов А. Ю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Бельянинов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Банк Аверс</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аверс </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Волкова Аида Накиповна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аида Накиповна Волкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аида Волкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Волкова Аида</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Н. Волкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Волкова А. Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А. Волкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Азиатско-Тихоокеанский Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Азиатско-Тихоокеанский банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЛОКО-Банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> локо банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давыдик Виктор Юльянович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Виктор Юльянович Давыдик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Виктор Давыдик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давыдик Виктор</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Ю. Давыдик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давыдик В. Ю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В. Давыдик</t>
   </si>
 </sst>
 </file>
@@ -3207,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
+      <selection activeCell="J374" sqref="J374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3271,13 +4574,13 @@
         <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E2" t="s">
         <v>937</v>
-      </c>
-      <c r="E2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3288,19 +4591,19 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3324,7 +4627,7 @@
         <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3355,6 +4658,9 @@
       <c r="B10" t="s">
         <v>376</v>
       </c>
+      <c r="C10" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3369,10 +4675,10 @@
         <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3383,7 +4689,7 @@
         <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3402,10 +4708,10 @@
         <v>380</v>
       </c>
       <c r="C15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3416,10 +4722,10 @@
         <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3459,7 +4765,7 @@
         <v>385</v>
       </c>
       <c r="C21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,7 +4781,7 @@
         <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3486,16 +4792,16 @@
         <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3514,7 +4820,7 @@
         <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3533,7 +4839,7 @@
         <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3544,7 +4850,7 @@
         <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3555,16 +4861,16 @@
         <v>393</v>
       </c>
       <c r="C30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F30" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3575,7 +4881,7 @@
         <v>394</v>
       </c>
       <c r="C31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3615,10 +4921,10 @@
         <v>398</v>
       </c>
       <c r="C36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3642,19 +4948,19 @@
         <v>400</v>
       </c>
       <c r="C39" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3665,7 +4971,7 @@
         <v>401</v>
       </c>
       <c r="C40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3676,10 +4982,10 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3722,10 +5028,10 @@
         <v>407</v>
       </c>
       <c r="C46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D46" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3762,13 +5068,13 @@
         <v>410</v>
       </c>
       <c r="C51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D51" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E51" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3794,7 +5100,7 @@
         <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3834,7 +5140,7 @@
         <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3874,7 +5180,7 @@
         <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3893,7 +5199,7 @@
         <v>421</v>
       </c>
       <c r="C67" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3912,28 +5218,28 @@
         <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D69" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E69" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F69" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G69" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I69" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J69" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3944,7 +5250,7 @@
         <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4029,7 +5335,7 @@
         <v>433</v>
       </c>
       <c r="C81" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,7 +5399,7 @@
         <v>440</v>
       </c>
       <c r="C89" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4104,13 +5410,13 @@
         <v>441</v>
       </c>
       <c r="C90" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D90" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E90" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4139,10 +5445,10 @@
         <v>443</v>
       </c>
       <c r="C94" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D94" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4153,7 +5459,7 @@
         <v>444</v>
       </c>
       <c r="C95" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4164,7 +5470,7 @@
         <v>445</v>
       </c>
       <c r="C96" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4208,13 +5514,13 @@
         <v>447</v>
       </c>
       <c r="C103" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D103" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E103" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4259,19 +5565,19 @@
         <v>451</v>
       </c>
       <c r="C109" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D109" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E109" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F109" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G109" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4303,10 +5609,10 @@
         <v>454</v>
       </c>
       <c r="C113" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D113" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4317,7 +5623,7 @@
         <v>455</v>
       </c>
       <c r="C114" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4344,13 +5650,13 @@
         <v>458</v>
       </c>
       <c r="C117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D117" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E117" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4374,7 +5680,7 @@
         <v>460</v>
       </c>
       <c r="C120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4406,10 +5712,10 @@
         <v>463</v>
       </c>
       <c r="C124" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,7 +5723,7 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4428,7 +5734,7 @@
         <v>464</v>
       </c>
       <c r="C126" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D126" t="s">
         <v>205</v>
@@ -4466,7 +5772,7 @@
         <v>468</v>
       </c>
       <c r="C130" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4477,19 +5783,19 @@
         <v>469</v>
       </c>
       <c r="C131" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D131" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E131" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F131" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G131" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4508,7 +5814,7 @@
         <v>471</v>
       </c>
       <c r="C133" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,16 +5825,16 @@
         <v>472</v>
       </c>
       <c r="C134" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D134" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E134" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F134" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4539,10 +5845,10 @@
         <v>473</v>
       </c>
       <c r="C135" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D135" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4558,7 +5864,10 @@
         <v>474</v>
       </c>
       <c r="C137" t="s">
-        <v>691</v>
+        <v>690</v>
+      </c>
+      <c r="D137" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4569,13 +5878,13 @@
         <v>475</v>
       </c>
       <c r="C138" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D138" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E138" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4591,10 +5900,10 @@
         <v>476</v>
       </c>
       <c r="C140" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D140" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4613,10 +5922,10 @@
         <v>478</v>
       </c>
       <c r="C142" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D142" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4667,7 +5976,7 @@
         <v>484</v>
       </c>
       <c r="C148" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4683,13 +5992,13 @@
         <v>485</v>
       </c>
       <c r="C150" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D150" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E150" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4708,7 +6017,7 @@
         <v>487</v>
       </c>
       <c r="C152" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4727,10 +6036,10 @@
         <v>489</v>
       </c>
       <c r="C154" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4760,7 +6069,7 @@
         <v>492</v>
       </c>
       <c r="C157" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -4771,13 +6080,13 @@
         <v>493</v>
       </c>
       <c r="C158" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D158" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E158" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -4806,10 +6115,10 @@
         <v>495</v>
       </c>
       <c r="C162" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D162" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4909,16 +6218,16 @@
         <v>504</v>
       </c>
       <c r="C176" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D176" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E176" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F176" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4929,13 +6238,13 @@
         <v>505</v>
       </c>
       <c r="C177" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D177" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E177" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4985,13 +6294,7 @@
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>510</v>
-      </c>
-      <c r="C184" t="s">
-        <v>704</v>
-      </c>
-      <c r="D184" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4999,7 +6302,7 @@
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -5007,7 +6310,7 @@
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5015,7 +6318,7 @@
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5028,10 +6331,10 @@
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C189" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5039,10 +6342,10 @@
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5055,7 +6358,7 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5063,13 +6366,13 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C193" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D193" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5077,10 +6380,10 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C194" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5098,7 +6401,13 @@
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="C197" t="s">
+        <v>941</v>
+      </c>
+      <c r="D197" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5106,7 +6415,7 @@
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5114,16 +6423,16 @@
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C199" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D199" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E199" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5136,7 +6445,7 @@
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5144,16 +6453,16 @@
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C202" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D202" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E202" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -5166,10 +6475,10 @@
         <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C204" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -5192,7 +6501,7 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5200,10 +6509,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C209" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5211,7 +6520,7 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5219,7 +6528,7 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -5227,10 +6536,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C212" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5238,13 +6547,13 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C213" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D213" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5262,7 +6571,7 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -5270,7 +6579,7 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5278,10 +6587,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C218" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -5289,7 +6598,7 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -5297,10 +6606,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C220" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -5308,22 +6617,22 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C221" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D221" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E221" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F221" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G221" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -5331,7 +6640,7 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5339,13 +6648,13 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C223" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D223" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5353,10 +6662,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C224" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -5364,10 +6673,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C225" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5375,7 +6684,7 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,16 +6692,16 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C227" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D227" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E227" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5400,19 +6709,19 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C228" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D228" t="s">
+        <v>933</v>
+      </c>
+      <c r="E228" t="s">
         <v>934</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>935</v>
-      </c>
-      <c r="F228" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5420,16 +6729,16 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C229" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E229" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5437,7 +6746,7 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5445,10 +6754,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C231" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5461,10 +6770,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C233" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5472,13 +6781,13 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C234" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D234" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,7 +6795,7 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5494,10 +6803,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C236" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5505,10 +6814,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C237" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,7 +6825,7 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5524,13 +6833,13 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D239" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5538,13 +6847,13 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C240" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D240" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -5552,7 +6861,7 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -5560,10 +6869,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C242" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -5581,10 +6890,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -5592,7 +6901,7 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -5600,7 +6909,7 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -5608,25 +6917,25 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C248" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D248" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E248" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F248" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G248" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H248" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -5644,7 +6953,7 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -5652,10 +6961,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C252" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -5668,13 +6977,13 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C254" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D254" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -5687,7 +6996,7 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -5700,13 +7009,13 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C258" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D258" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
@@ -5719,10 +7028,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C260" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
@@ -5730,7 +7039,7 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
@@ -5743,13 +7052,13 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C263" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D263" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -5757,7 +7066,7 @@
         <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -5765,13 +7074,13 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C265" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D265" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -5779,34 +7088,34 @@
         <v>275</v>
       </c>
       <c r="B266" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C266" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D266" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E266" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F266" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G266" t="s">
         <v>214</v>
       </c>
       <c r="H266" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I266" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J266" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K266" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -5814,10 +7123,10 @@
         <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C267" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -5825,7 +7134,7 @@
         <v>277</v>
       </c>
       <c r="B268" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -5833,7 +7142,7 @@
         <v>278</v>
       </c>
       <c r="B269" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -5851,10 +7160,10 @@
         <v>281</v>
       </c>
       <c r="B272" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C272" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5867,16 +7176,16 @@
         <v>283</v>
       </c>
       <c r="B274" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C274" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D274" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E274" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5884,13 +7193,13 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C275" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D275" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5898,13 +7207,13 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C276" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D276" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5912,7 +7221,7 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5920,7 +7229,7 @@
         <v>287</v>
       </c>
       <c r="B278" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -5928,7 +7237,7 @@
         <v>288</v>
       </c>
       <c r="B279" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5936,7 +7245,7 @@
         <v>289</v>
       </c>
       <c r="B280" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5944,13 +7253,13 @@
         <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D281" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5958,7 +7267,7 @@
         <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5966,7 +7275,7 @@
         <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5974,13 +7283,13 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C284" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D284" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5988,13 +7297,13 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C285" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D285" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -6002,16 +7311,16 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D286" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E286" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -6019,10 +7328,10 @@
         <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C287" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -6030,13 +7339,13 @@
         <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C288" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D288" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6044,7 +7353,7 @@
         <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6052,7 +7361,7 @@
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6070,13 +7379,13 @@
         <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C293" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D293" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -6084,7 +7393,7 @@
         <v>303</v>
       </c>
       <c r="B294" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6097,7 +7406,7 @@
         <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6105,7 +7414,7 @@
         <v>306</v>
       </c>
       <c r="B297" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6113,10 +7422,10 @@
         <v>307</v>
       </c>
       <c r="B298" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C298" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6124,7 +7433,7 @@
         <v>308</v>
       </c>
       <c r="B299" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6132,7 +7441,7 @@
         <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6140,13 +7449,13 @@
         <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C301" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D301" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6159,10 +7468,10 @@
         <v>312</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C303" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -6180,7 +7489,7 @@
         <v>315</v>
       </c>
       <c r="B306" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -6188,10 +7497,10 @@
         <v>316</v>
       </c>
       <c r="B307" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C307" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -6204,10 +7513,10 @@
         <v>318</v>
       </c>
       <c r="B309" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C309" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -6215,22 +7524,22 @@
         <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C310" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D310" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E310" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F310" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G310" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -6238,10 +7547,10 @@
         <v>320</v>
       </c>
       <c r="B311" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C311" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -6249,7 +7558,7 @@
         <v>321</v>
       </c>
       <c r="B312" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -6257,10 +7566,10 @@
         <v>322</v>
       </c>
       <c r="B313" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C313" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -6268,7 +7577,7 @@
         <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -6276,7 +7585,7 @@
         <v>324</v>
       </c>
       <c r="B315" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -6302,10 +7611,10 @@
         <v>328</v>
       </c>
       <c r="B319" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C319" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -6313,7 +7622,7 @@
         <v>329</v>
       </c>
       <c r="B320" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -6321,10 +7630,10 @@
         <v>330</v>
       </c>
       <c r="B321" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C321" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -6332,19 +7641,19 @@
         <v>331</v>
       </c>
       <c r="B322" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C322" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D322" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E322" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F322" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -6362,10 +7671,10 @@
         <v>334</v>
       </c>
       <c r="B325" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C325" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -6373,7 +7682,7 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
@@ -6381,10 +7690,10 @@
         <v>336</v>
       </c>
       <c r="B327" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C327" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -6392,7 +7701,7 @@
         <v>337</v>
       </c>
       <c r="B328" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -6405,10 +7714,10 @@
         <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C330" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -6416,7 +7725,7 @@
         <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -6424,10 +7733,10 @@
         <v>341</v>
       </c>
       <c r="B332" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C332" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -6435,10 +7744,10 @@
         <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C333" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -6451,34 +7760,34 @@
         <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C335" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D335" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E335" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F335" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G335" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H335" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I335" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J335" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K335" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -6486,7 +7795,7 @@
         <v>345</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6494,10 +7803,10 @@
         <v>346</v>
       </c>
       <c r="B337" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C337" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6505,10 +7814,10 @@
         <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C338" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6516,7 +7825,7 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -6524,10 +7833,10 @@
         <v>349</v>
       </c>
       <c r="B340" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C340" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -6535,10 +7844,10 @@
         <v>350</v>
       </c>
       <c r="B341" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C341" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -6546,13 +7855,13 @@
         <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C342" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D342" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6560,10 +7869,10 @@
         <v>352</v>
       </c>
       <c r="B343" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C343" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -6571,7 +7880,7 @@
         <v>353</v>
       </c>
       <c r="B344" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -6579,10 +7888,10 @@
         <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C345" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -6590,10 +7899,10 @@
         <v>355</v>
       </c>
       <c r="B346" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C346" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -6606,16 +7915,16 @@
         <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C348" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D348" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E348" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -6623,10 +7932,10 @@
         <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C349" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6634,10 +7943,10 @@
         <v>359</v>
       </c>
       <c r="B350" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C350" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6650,139 +7959,1549 @@
         <v>361</v>
       </c>
       <c r="B352" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>362</v>
       </c>
       <c r="B353" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>363</v>
       </c>
       <c r="B354" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C354" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D354" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E354" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C355" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D355" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E355" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F355" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G355" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>365</v>
       </c>
       <c r="B356" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C356" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D356" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E356" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F356" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G356" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H356" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I356" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>366</v>
       </c>
       <c r="B357" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C357" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D357" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E357" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>367</v>
       </c>
       <c r="B358" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C358" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D358" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E358" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F358" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>369</v>
       </c>
       <c r="B360" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>928</v>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>943</v>
+      </c>
+      <c r="B362" t="s">
+        <v>944</v>
+      </c>
+      <c r="C362" t="s">
+        <v>945</v>
+      </c>
+      <c r="D362" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>947</v>
+      </c>
+      <c r="D364" t="s">
+        <v>948</v>
+      </c>
+      <c r="E364" t="s">
+        <v>949</v>
+      </c>
+      <c r="F364" t="s">
+        <v>950</v>
+      </c>
+      <c r="G364" t="s">
+        <v>951</v>
+      </c>
+      <c r="H364" t="s">
+        <v>952</v>
+      </c>
+      <c r="I364" t="s">
+        <v>953</v>
+      </c>
+      <c r="J364" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>955</v>
+      </c>
+      <c r="B365" t="s">
+        <v>956</v>
+      </c>
+      <c r="D365" t="s">
+        <v>957</v>
+      </c>
+      <c r="E365" t="s">
+        <v>958</v>
+      </c>
+      <c r="F365" t="s">
+        <v>959</v>
+      </c>
+      <c r="G365" t="s">
+        <v>960</v>
+      </c>
+      <c r="H365" t="s">
+        <v>961</v>
+      </c>
+      <c r="I365" t="s">
+        <v>962</v>
+      </c>
+      <c r="J365" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>964</v>
+      </c>
+      <c r="B366" t="s">
+        <v>965</v>
+      </c>
+      <c r="D366" t="s">
+        <v>966</v>
+      </c>
+      <c r="E366" t="s">
+        <v>967</v>
+      </c>
+      <c r="F366" t="s">
+        <v>968</v>
+      </c>
+      <c r="G366" t="s">
+        <v>969</v>
+      </c>
+      <c r="H366" t="s">
+        <v>970</v>
+      </c>
+      <c r="I366" t="s">
+        <v>971</v>
+      </c>
+      <c r="J366" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>973</v>
+      </c>
+      <c r="B367" t="s">
+        <v>974</v>
+      </c>
+      <c r="C367" t="s">
+        <v>975</v>
+      </c>
+      <c r="D367" t="s">
+        <v>976</v>
+      </c>
+      <c r="E367" t="s">
+        <v>977</v>
+      </c>
+      <c r="F367" t="s">
+        <v>978</v>
+      </c>
+      <c r="G367" t="s">
+        <v>979</v>
+      </c>
+      <c r="H367" t="s">
+        <v>980</v>
+      </c>
+      <c r="I367" t="s">
+        <v>981</v>
+      </c>
+      <c r="J367" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>983</v>
+      </c>
+      <c r="B368" t="s">
+        <v>984</v>
+      </c>
+      <c r="D368" t="s">
+        <v>985</v>
+      </c>
+      <c r="E368" t="s">
+        <v>986</v>
+      </c>
+      <c r="F368" t="s">
+        <v>987</v>
+      </c>
+      <c r="G368" t="s">
+        <v>988</v>
+      </c>
+      <c r="H368" t="s">
+        <v>989</v>
+      </c>
+      <c r="I368" t="s">
+        <v>990</v>
+      </c>
+      <c r="J368" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>992</v>
+      </c>
+      <c r="B369" t="s">
+        <v>993</v>
+      </c>
+      <c r="D369" t="s">
+        <v>994</v>
+      </c>
+      <c r="E369" t="s">
+        <v>995</v>
+      </c>
+      <c r="F369" t="s">
+        <v>996</v>
+      </c>
+      <c r="G369" t="s">
+        <v>997</v>
+      </c>
+      <c r="H369" t="s">
+        <v>998</v>
+      </c>
+      <c r="I369" t="s">
+        <v>999</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H376" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H377" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I377" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I378" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I380" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H382" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H383" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I383" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J383" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H384" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I384" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J385" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I386" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I387" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J387" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H388" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I388" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H389" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I389" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H390" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I390" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J390" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H391" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I391" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H392" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I392" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J392" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B393" t="s">
+        <v>816</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H394" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I394" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J394" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H395" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J395" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H396" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I396" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J396" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J397" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I398" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J398" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H399" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I399" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J399" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I401" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J401" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H402" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J402" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H403" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I403" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J403" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H404" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I404" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J404" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H405" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J405" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I406" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J406" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H407" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J407" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H408" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J408" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H409" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J409" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H410" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J410" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H412" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J412" t="s">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>

--- a/data/name/client_with_alternative_names.xlsx
+++ b/data/name/client_with_alternative_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Documents\SberPacharmProjects\FinGigaChat\data\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88857627-CA5E-4A73-8C32-46EA1B282CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F882D7E3-8ACD-4CE0-8910-A34BAFF72C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="2224">
   <si>
     <t>Клиент</t>
   </si>
@@ -6702,6 +6702,9 @@
   </si>
   <si>
     <t>Название 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China Railway Construction</t>
   </si>
 </sst>
 </file>
@@ -7078,7 +7081,7 @@
   <dimension ref="A1:T412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L148" sqref="L148"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7354,6 +7357,9 @@
       <c r="D12" t="s">
         <v>783</v>
       </c>
+      <c r="E12" t="s">
+        <v>2223</v>
+      </c>
       <c r="L12" t="s">
         <v>1397</v>
       </c>
@@ -11292,9 +11298,6 @@
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>201</v>
-      </c>
-      <c r="B222" t="s">
-        <v>515</v>
       </c>
       <c r="L222" t="s">
         <v>515</v>
